--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>52.52864524186919</v>
+        <v>89.07031149708254</v>
       </c>
       <c r="C2">
-        <v>0.0181642618435653</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D2">
-        <v>8.224379466451786</v>
+        <v>13.94568692137478</v>
       </c>
       <c r="E2">
-        <v>6.220321288314538</v>
+        <v>10.54750131496813</v>
       </c>
       <c r="F2">
-        <v>3.474642196954747</v>
+        <v>5.891784594836309</v>
       </c>
       <c r="G2">
-        <v>169.840823007906</v>
+        <v>287.9909607525366</v>
       </c>
       <c r="H2">
-        <v>0.3581776190172558</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I2">
-        <v>240.6651530823571</v>
+        <v>408.0843900092145</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>63.02496055453661</v>
+        <v>106.8684113750838</v>
       </c>
       <c r="C3">
-        <v>0.04375935807768003</v>
+        <v>0.07420065065345745</v>
       </c>
       <c r="D3">
-        <v>15.45186445212153</v>
+        <v>26.20098754924957</v>
       </c>
       <c r="E3">
-        <v>2.730872760723456</v>
+        <v>4.630610333400646</v>
       </c>
       <c r="F3">
-        <v>2.822044423922637</v>
+        <v>4.785205762303602</v>
       </c>
       <c r="G3">
-        <v>55.67004754148034</v>
+        <v>94.39703713555366</v>
       </c>
       <c r="H3">
-        <v>0.8357477777069302</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I3">
-        <v>140.5792968685692</v>
+        <v>238.3735903423565</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>67.73182840775068</v>
+        <v>114.8496220827077</v>
       </c>
       <c r="C4">
-        <v>0.04541065460891325</v>
+        <v>0.0770006752064181</v>
       </c>
       <c r="D4">
-        <v>14.205746351144</v>
+        <v>24.08800468237461</v>
       </c>
       <c r="E4">
-        <v>1.972296993855829</v>
+        <v>3.344329685233796</v>
       </c>
       <c r="F4">
-        <v>3.016059978067319</v>
+        <v>5.114188658461973</v>
       </c>
       <c r="G4">
-        <v>51.89580703019357</v>
+        <v>87.99723800771952</v>
       </c>
       <c r="H4">
-        <v>0.7760515078707207</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I4">
-        <v>139.643200923491</v>
+        <v>236.7862972180935</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>66.60218012297926</v>
+        <v>112.9341315128779</v>
       </c>
       <c r="C5">
-        <v>0.04045676501521361</v>
+        <v>0.06860060154753612</v>
       </c>
       <c r="D5">
-        <v>12.71040462997095</v>
+        <v>21.55242524212465</v>
       </c>
       <c r="E5">
-        <v>2.882587914096982</v>
+        <v>4.887866463034013</v>
       </c>
       <c r="F5">
-        <v>3.562831085202329</v>
+        <v>6.041322274908298</v>
       </c>
       <c r="G5">
-        <v>53.78292728583693</v>
+        <v>91.19713757163652</v>
       </c>
       <c r="H5">
-        <v>0.7760515078707207</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I5">
-        <v>140.3574393109724</v>
+        <v>237.9973970925184</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>68.76733933545778</v>
+        <v>116.6054884383849</v>
       </c>
       <c r="C6">
-        <v>0.04375935807768003</v>
+        <v>0.07420065065345745</v>
       </c>
       <c r="D6">
-        <v>15.95031169251255</v>
+        <v>27.04618069599955</v>
       </c>
       <c r="E6">
-        <v>2.882587914096982</v>
+        <v>4.887866463034013</v>
       </c>
       <c r="F6">
-        <v>3.104248866314901</v>
+        <v>5.263726338533961</v>
       </c>
       <c r="G6">
-        <v>43.40376587979823</v>
+        <v>73.59768997009267</v>
       </c>
       <c r="H6">
-        <v>0.5372664285258836</v>
+        <v>0.9110169875004114</v>
       </c>
       <c r="I6">
-        <v>134.689279474784</v>
+        <v>228.386169544199</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>70.41474308408273</v>
+        <v>119.3989121860533</v>
       </c>
       <c r="C7">
-        <v>0.039631116749597</v>
+        <v>0.06720058927105579</v>
       </c>
       <c r="D7">
-        <v>17.44565341368562</v>
+        <v>29.5817601362495</v>
       </c>
       <c r="E7">
-        <v>4.399739447832235</v>
+        <v>7.4604277593677</v>
       </c>
       <c r="F7">
-        <v>2.663304425076991</v>
+        <v>4.516037938174025</v>
       </c>
       <c r="G7">
-        <v>36.79884498504634</v>
+        <v>62.39804149638294</v>
       </c>
       <c r="H7">
-        <v>0.8357477777069302</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I7">
-        <v>132.5976642501804</v>
+        <v>224.8395176416102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>77.66331957803239</v>
+        <v>131.6899766757941</v>
       </c>
       <c r="C8">
-        <v>0.04293370981206341</v>
+        <v>0.07280063837697712</v>
       </c>
       <c r="D8">
-        <v>15.20264083192603</v>
+        <v>25.77839097587458</v>
       </c>
       <c r="E8">
-        <v>5.310030368073387</v>
+        <v>9.003964537167912</v>
       </c>
       <c r="F8">
-        <v>2.628028869777957</v>
+        <v>4.456222866145229</v>
       </c>
       <c r="G8">
-        <v>23.58900319554252</v>
+        <v>39.99874454896342</v>
       </c>
       <c r="H8">
-        <v>1.432710476069023</v>
+        <v>2.429378633334431</v>
       </c>
       <c r="I8">
-        <v>125.8686670292334</v>
+        <v>213.4294788756567</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>86.22981907088206</v>
+        <v>146.2157801636695</v>
       </c>
       <c r="C9">
-        <v>0.02807204103096455</v>
+        <v>0.04760041740033119</v>
       </c>
       <c r="D9">
-        <v>11.71351014918891</v>
+        <v>19.86203894862467</v>
       </c>
       <c r="E9">
-        <v>8.192618282170365</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F9">
-        <v>2.557477759179891</v>
+        <v>4.33659272208764</v>
       </c>
       <c r="G9">
-        <v>19.81476268425574</v>
+        <v>33.59894542112925</v>
       </c>
       <c r="H9">
-        <v>0.3581776190172558</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I9">
-        <v>128.8944376057252</v>
+        <v>218.5601333314469</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>83.73517910867851</v>
+        <v>141.9857384886289</v>
       </c>
       <c r="C10">
-        <v>0.0181642618435653</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D10">
-        <v>9.719721187624845</v>
+        <v>16.48126636162473</v>
       </c>
       <c r="E10">
-        <v>10.92349104289382</v>
+        <v>18.52244133360258</v>
       </c>
       <c r="F10">
-        <v>1.375746656662286</v>
+        <v>2.332787809123006</v>
       </c>
       <c r="G10">
-        <v>16.98408230079061</v>
+        <v>28.79909607525365</v>
       </c>
       <c r="H10">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I10">
-        <v>122.8160808283299</v>
+        <v>208.2533544480377</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>59.02412287930466</v>
+        <v>100.0843822736035</v>
       </c>
       <c r="C11">
-        <v>0.01568731704671548</v>
+        <v>0.02660023325312625</v>
       </c>
       <c r="D11">
-        <v>8.473603086647296</v>
+        <v>14.36828349474977</v>
       </c>
       <c r="E11">
-        <v>8.496048588917418</v>
+        <v>14.40634325946866</v>
       </c>
       <c r="F11">
-        <v>0.7055111059806594</v>
+        <v>1.1963014405759</v>
       </c>
       <c r="G11">
-        <v>10.37916140603871</v>
+        <v>17.59944760154391</v>
       </c>
       <c r="H11">
-        <v>0.1790888095086279</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I11">
-        <v>87.27322319344408</v>
+        <v>147.9850306323616</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>50.03400527966571</v>
+        <v>84.84026982204192</v>
       </c>
       <c r="C12">
-        <v>0.03302593062466417</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D12">
-        <v>5.732143264496699</v>
+        <v>9.719721187624845</v>
       </c>
       <c r="E12">
-        <v>7.130612208555689</v>
+        <v>12.09103809276834</v>
       </c>
       <c r="F12">
-        <v>0.6702355506816265</v>
+        <v>1.136486368547105</v>
       </c>
       <c r="G12">
-        <v>16.04052217296892</v>
+        <v>27.19914629329513</v>
       </c>
       <c r="H12">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I12">
-        <v>79.70024067682952</v>
+        <v>135.1438863650588</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>40.14958278791613</v>
+        <v>68.07972733603172</v>
       </c>
       <c r="C13">
-        <v>0.02476944796849813</v>
+        <v>0.04200036829440987</v>
       </c>
       <c r="D13">
-        <v>4.486025163519158</v>
+        <v>7.606738320749876</v>
       </c>
       <c r="E13">
-        <v>6.06860613494101</v>
+        <v>10.29024518533476</v>
       </c>
       <c r="F13">
-        <v>0.3880311082893626</v>
+        <v>0.6579657923167451</v>
       </c>
       <c r="G13">
-        <v>10.37916140603871</v>
+        <v>17.59944760154391</v>
       </c>
       <c r="H13">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I13">
-        <v>61.61556858834528</v>
+        <v>104.478572823716</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>30.45343501029512</v>
+        <v>51.63843327832652</v>
       </c>
       <c r="C14">
-        <v>0.02807204103096455</v>
+        <v>0.04760041740033119</v>
       </c>
       <c r="D14">
-        <v>3.738354302932631</v>
+        <v>6.338948600624897</v>
       </c>
       <c r="E14">
-        <v>1.972296993855829</v>
+        <v>3.344329685233796</v>
       </c>
       <c r="F14">
-        <v>0.2469288870932308</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G14">
-        <v>6.604920894751905</v>
+        <v>11.19964847370976</v>
       </c>
       <c r="H14">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I14">
-        <v>43.10370439979589</v>
+        <v>73.08889006921913</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>19.06281480551704</v>
+        <v>32.32390336587675</v>
       </c>
       <c r="C15">
-        <v>0.0181642618435653</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D15">
-        <v>2.990683442346105</v>
+        <v>5.071158880499917</v>
       </c>
       <c r="E15">
-        <v>1.365436380361728</v>
+        <v>2.315305166700323</v>
       </c>
       <c r="F15">
-        <v>0.4056688859388789</v>
+        <v>0.687873328331143</v>
       </c>
       <c r="G15">
-        <v>11.32272153386041</v>
+        <v>19.19939738350243</v>
       </c>
       <c r="H15">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I15">
-        <v>35.22518557970394</v>
+        <v>59.72966250471539</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>14.30887827377082</v>
+        <v>24.2628805511766</v>
       </c>
       <c r="C16">
-        <v>0.02559509623411474</v>
+        <v>0.04340038057089021</v>
       </c>
       <c r="D16">
-        <v>1.495341721173052</v>
+        <v>2.535579440249959</v>
       </c>
       <c r="E16">
-        <v>0.4551454601205758</v>
+        <v>0.7717683889001071</v>
       </c>
       <c r="F16">
-        <v>0.1587399988456484</v>
+        <v>0.2691678241295777</v>
       </c>
       <c r="G16">
-        <v>7.548481022573606</v>
+        <v>12.79959825566829</v>
       </c>
       <c r="H16">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I16">
-        <v>24.05187784255402</v>
+        <v>40.78361895041769</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>9.131323635235322</v>
+        <v>15.48354877279034</v>
       </c>
       <c r="C17">
-        <v>0.02889768929658115</v>
+        <v>0.04900042967681151</v>
       </c>
       <c r="E17">
-        <v>0.1517151533735253</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F17">
-        <v>0.3351177753408133</v>
+        <v>0.5682431842735526</v>
       </c>
       <c r="G17">
-        <v>7.548481022573606</v>
+        <v>12.79959825566829</v>
       </c>
       <c r="H17">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I17">
-        <v>17.25523154565606</v>
+        <v>29.25887088176463</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>5.459966709728341</v>
+        <v>9.2582044208437</v>
       </c>
       <c r="C18">
-        <v>0.02394379970288152</v>
+        <v>0.04060035601792954</v>
       </c>
       <c r="D18">
-        <v>1.495341721173052</v>
+        <v>2.535579440249959</v>
       </c>
       <c r="F18">
-        <v>0.2469288870932308</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G18">
-        <v>13.20984178950381</v>
+        <v>22.39929694741952</v>
       </c>
       <c r="I18">
-        <v>20.43602290720132</v>
+        <v>34.65238666873267</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>6.777889708628281</v>
+        <v>11.49294341897839</v>
       </c>
       <c r="C19">
-        <v>0.01568731704671548</v>
+        <v>0.02660023325312625</v>
       </c>
       <c r="D19">
-        <v>1.246118100977544</v>
+        <v>2.112982866874965</v>
       </c>
       <c r="E19">
-        <v>0.6068606134941014</v>
+        <v>1.029024518533476</v>
       </c>
       <c r="F19">
-        <v>0.2469288870932308</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G19">
-        <v>16.04052217296892</v>
+        <v>27.19914629329513</v>
       </c>
       <c r="I19">
-        <v>24.93400680020879</v>
+        <v>42.27940283513664</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>11.20234549064952</v>
+        <v>18.99528148414485</v>
       </c>
       <c r="C20">
-        <v>0.01403602051548227</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D20">
-        <v>2.492236201955088</v>
+        <v>4.225965733749931</v>
       </c>
       <c r="E20">
-        <v>0.3034303067470507</v>
+        <v>0.514512259266738</v>
       </c>
       <c r="F20">
-        <v>0.4233066635883956</v>
+        <v>0.7177808643455402</v>
       </c>
       <c r="G20">
-        <v>19.81476268425574</v>
+        <v>33.59894542112925</v>
       </c>
       <c r="I20">
-        <v>34.25011736771127</v>
+        <v>58.07628597133647</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>25.37001772882393</v>
+        <v>43.01872571409275</v>
       </c>
       <c r="C21">
-        <v>0.01568731704671548</v>
+        <v>0.02660023325312625</v>
       </c>
       <c r="D21">
-        <v>5.732143264496699</v>
+        <v>9.719721187624845</v>
       </c>
       <c r="E21">
-        <v>3.944593987711659</v>
+        <v>6.688659370467593</v>
       </c>
       <c r="F21">
-        <v>1.058266658970989</v>
+        <v>1.794452160863851</v>
       </c>
       <c r="G21">
-        <v>31.13748421811614</v>
+        <v>52.79834280463167</v>
       </c>
       <c r="H21">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I21">
-        <v>67.31788944500234</v>
+        <v>114.1477255806561</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>46.78626646094798</v>
+        <v>79.33323443378136</v>
       </c>
       <c r="C22">
-        <v>0.01733861357794869</v>
+        <v>0.0294002578060869</v>
       </c>
       <c r="D22">
-        <v>10.21816842801586</v>
+        <v>17.32645950837471</v>
       </c>
       <c r="E22">
-        <v>14.10950926373785</v>
+        <v>23.92482005590331</v>
       </c>
       <c r="F22">
-        <v>1.816691097900198</v>
+        <v>3.080476209482944</v>
       </c>
       <c r="G22">
-        <v>50.95224690237188</v>
+        <v>86.39728822576102</v>
       </c>
       <c r="H22">
-        <v>0.2387850793448371</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I22">
-        <v>124.1390058458965</v>
+        <v>210.4965751299985</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>65.84908126646505</v>
+        <v>111.6571377996581</v>
       </c>
       <c r="C23">
-        <v>0.01073342745301585</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D23">
-        <v>8.224379466451786</v>
+        <v>13.94568692137478</v>
       </c>
       <c r="E23">
-        <v>11.07520619626735</v>
+        <v>18.77969746323593</v>
       </c>
       <c r="F23">
-        <v>2.098895540292462</v>
+        <v>3.558996785713305</v>
       </c>
       <c r="G23">
-        <v>50.95224690237188</v>
+        <v>86.39728822576102</v>
       </c>
       <c r="H23">
-        <v>0.4178738888534651</v>
+        <v>0.7085687680558757</v>
       </c>
       <c r="I23">
-        <v>138.628416688155</v>
+        <v>235.0655761233933</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>80.48744028996083</v>
+        <v>136.4787031003683</v>
       </c>
       <c r="C24">
-        <v>0.02311815143726492</v>
+        <v>0.03920034374144922</v>
       </c>
       <c r="D24">
-        <v>13.45807549055747</v>
+        <v>22.82021496224963</v>
       </c>
       <c r="E24">
-        <v>5.916890981567488</v>
+        <v>10.03298905570139</v>
       </c>
       <c r="F24">
-        <v>2.522202203880857</v>
+        <v>4.276777650058844</v>
       </c>
       <c r="G24">
-        <v>73.59768997009267</v>
+        <v>124.7960829927659</v>
       </c>
       <c r="H24">
-        <v>0.5372664285258836</v>
+        <v>0.9110169875004114</v>
       </c>
       <c r="I24">
-        <v>176.5426835160225</v>
+        <v>299.354985092386</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>60.62445794939742</v>
+        <v>102.7979939141956</v>
       </c>
       <c r="C25">
-        <v>0.01486166878109888</v>
+        <v>0.02520022097664593</v>
       </c>
       <c r="D25">
-        <v>12.71040462997095</v>
+        <v>21.55242524212465</v>
       </c>
       <c r="E25">
-        <v>12.5923577300026</v>
+        <v>21.35225875956963</v>
       </c>
       <c r="F25">
-        <v>2.85731997922167</v>
+        <v>4.845020834332398</v>
       </c>
       <c r="G25">
-        <v>117.9450159777126</v>
+        <v>199.9937227448169</v>
       </c>
       <c r="H25">
-        <v>1.074532857051767</v>
+        <v>1.822033975000823</v>
       </c>
       <c r="I25">
-        <v>207.8189507921381</v>
+        <v>352.3886556910167</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>51.4931343141621</v>
+        <v>87.31444514140529</v>
       </c>
       <c r="C26">
-        <v>0.01403602051548227</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D26">
-        <v>11.96273376938442</v>
+        <v>20.28463552199967</v>
       </c>
       <c r="E26">
-        <v>6.06860613494101</v>
+        <v>10.29024518533476</v>
       </c>
       <c r="F26">
-        <v>3.386453308707165</v>
+        <v>5.742246914764322</v>
       </c>
       <c r="G26">
-        <v>184.9377850530534</v>
+        <v>313.5901572638733</v>
       </c>
       <c r="H26">
-        <v>0.4178738888534651</v>
+        <v>0.7085687680558757</v>
       </c>
       <c r="I26">
-        <v>258.280622489617</v>
+        <v>437.9540990041334</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>61.75410623416879</v>
+        <v>104.7134844840254</v>
       </c>
       <c r="C27">
-        <v>0.03385157889028077</v>
+        <v>0.05740050333569349</v>
       </c>
       <c r="D27">
-        <v>22.18090219740027</v>
+        <v>37.61109503037439</v>
       </c>
       <c r="E27">
-        <v>2.579157607349931</v>
+        <v>4.373354203767273</v>
       </c>
       <c r="F27">
-        <v>2.751493313324572</v>
+        <v>4.665575618246012</v>
       </c>
       <c r="G27">
-        <v>60.38784818058885</v>
+        <v>102.3967860453463</v>
       </c>
       <c r="H27">
-        <v>0.8954440475431392</v>
+        <v>1.518361645834019</v>
       </c>
       <c r="I27">
-        <v>150.5828031592658</v>
+        <v>255.3360575309291</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>66.36683673031858</v>
+        <v>112.5350709774968</v>
       </c>
       <c r="C28">
-        <v>0.03467722715589738</v>
+        <v>0.05880051561217381</v>
       </c>
       <c r="D28">
-        <v>20.43633685603172</v>
+        <v>34.65291901674943</v>
       </c>
       <c r="E28">
-        <v>1.972296993855829</v>
+        <v>3.344329685233796</v>
       </c>
       <c r="F28">
-        <v>2.945508867469252</v>
+        <v>4.994558514404384</v>
       </c>
       <c r="G28">
-        <v>56.61360766930207</v>
+        <v>95.99698691751222</v>
       </c>
       <c r="H28">
-        <v>0.8357477777069302</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I28">
-        <v>149.2050121218403</v>
+        <v>252.9998031631205</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>65.28425712407935</v>
+        <v>110.6993925147432</v>
       </c>
       <c r="C29">
-        <v>0.03137463409343096</v>
+        <v>0.0532004665062525</v>
       </c>
       <c r="D29">
-        <v>18.19332427427214</v>
+        <v>30.84954985637449</v>
       </c>
       <c r="E29">
-        <v>2.730872760723456</v>
+        <v>4.630610333400646</v>
       </c>
       <c r="F29">
-        <v>3.474642196954747</v>
+        <v>5.891784594836309</v>
       </c>
       <c r="G29">
-        <v>58.50072792494547</v>
+        <v>99.1968864814292</v>
       </c>
       <c r="H29">
-        <v>0.8357477777069302</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I29">
-        <v>149.0509466927755</v>
+        <v>252.7385617834019</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>67.40234765802572</v>
+        <v>114.290937333174</v>
       </c>
       <c r="C30">
-        <v>0.03385157889028077</v>
+        <v>0.05740050333569349</v>
       </c>
       <c r="D30">
-        <v>22.9285730579868</v>
+        <v>38.87888475049938</v>
       </c>
       <c r="E30">
-        <v>2.730872760723456</v>
+        <v>4.630610333400646</v>
       </c>
       <c r="F30">
-        <v>3.033697755716835</v>
+        <v>5.144096194476371</v>
       </c>
       <c r="G30">
-        <v>47.17800639108505</v>
+        <v>79.99748909792685</v>
       </c>
       <c r="H30">
-        <v>0.596962698362093</v>
+        <v>1.012241097222679</v>
       </c>
       <c r="I30">
-        <v>143.9043119007902</v>
+        <v>244.0116593100357</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>69.00268272811851</v>
+        <v>117.0045489737661</v>
       </c>
       <c r="C31">
-        <v>0.03054898582781435</v>
+        <v>0.05180045422977217</v>
       </c>
       <c r="D31">
-        <v>25.17158563974638</v>
+        <v>42.68225391087427</v>
       </c>
       <c r="E31">
-        <v>4.248024294458709</v>
+        <v>7.203171629734332</v>
       </c>
       <c r="F31">
-        <v>2.592753314478923</v>
+        <v>4.396407794116433</v>
       </c>
       <c r="G31">
-        <v>39.62952536851147</v>
+        <v>67.1978908422585</v>
       </c>
       <c r="H31">
-        <v>0.8954440475431392</v>
+        <v>1.518361645834019</v>
       </c>
       <c r="I31">
-        <v>141.570564378685</v>
+        <v>240.0544352508135</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>76.1100531864717</v>
+        <v>129.0561771422782</v>
       </c>
       <c r="C32">
-        <v>0.03302593062466417</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D32">
-        <v>21.93167857720477</v>
+        <v>37.18849845699939</v>
       </c>
       <c r="E32">
-        <v>5.158315214699861</v>
+        <v>8.746708407534546</v>
       </c>
       <c r="F32">
-        <v>2.557477759179891</v>
+        <v>4.33659272208764</v>
       </c>
       <c r="G32">
-        <v>25.47612345118594</v>
+        <v>43.19864411288051</v>
       </c>
       <c r="H32">
-        <v>1.552103015741441</v>
+        <v>2.631826852778966</v>
       </c>
       <c r="I32">
-        <v>132.8187771351082</v>
+        <v>225.2144481856185</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>84.48827796519281</v>
+        <v>143.2627322018487</v>
       </c>
       <c r="C33">
-        <v>0.02146685490603171</v>
+        <v>0.03640031918848856</v>
       </c>
       <c r="D33">
-        <v>16.94720617329459</v>
+        <v>28.73656698949953</v>
       </c>
       <c r="E33">
-        <v>7.889187975423318</v>
+        <v>13.37731874093519</v>
       </c>
       <c r="F33">
-        <v>2.486926648581825</v>
+        <v>4.216962578030048</v>
       </c>
       <c r="G33">
-        <v>21.70188293989911</v>
+        <v>36.79884498504634</v>
       </c>
       <c r="H33">
-        <v>0.4178738888534651</v>
+        <v>0.7085687680558757</v>
       </c>
       <c r="I33">
-        <v>133.9528224461512</v>
+        <v>227.1373945826041</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>82.04070668152147</v>
+        <v>139.1125026338842</v>
       </c>
       <c r="C34">
-        <v>0.01403602051548227</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D34">
-        <v>13.95652273094849</v>
+        <v>23.66540810899961</v>
       </c>
       <c r="E34">
-        <v>10.62006073614677</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F34">
-        <v>1.340471101363253</v>
+        <v>2.27297273709421</v>
       </c>
       <c r="G34">
-        <v>18.87120255643403</v>
+        <v>31.99899563917074</v>
       </c>
       <c r="H34">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I34">
-        <v>126.9026960967657</v>
+        <v>215.182832511907</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>57.84740591600112</v>
+        <v>98.08907959669759</v>
       </c>
       <c r="C35">
-        <v>0.01238472398424906</v>
+        <v>0.02100018414720494</v>
       </c>
       <c r="D35">
-        <v>12.21195738957993</v>
+        <v>20.70723209537466</v>
       </c>
       <c r="E35">
-        <v>8.192618282170365</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F35">
-        <v>0.687873328331143</v>
+        <v>1.166393904561503</v>
       </c>
       <c r="G35">
-        <v>11.32272153386041</v>
+        <v>19.19939738350243</v>
       </c>
       <c r="H35">
-        <v>0.1790888095086279</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I35">
-        <v>90.45404998343585</v>
+        <v>153.3786064936521</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>49.04556303049075</v>
+        <v>83.16421557344087</v>
       </c>
       <c r="C36">
-        <v>0.02559509623411474</v>
+        <v>0.04340038057089021</v>
       </c>
       <c r="D36">
-        <v>8.224379466451786</v>
+        <v>13.94568692137478</v>
       </c>
       <c r="E36">
-        <v>6.978897055182166</v>
+        <v>11.83378196313498</v>
       </c>
       <c r="F36">
-        <v>0.65259777303211</v>
+        <v>1.106578832532708</v>
       </c>
       <c r="G36">
-        <v>17.92764242861231</v>
+        <v>30.3990458572122</v>
       </c>
       <c r="H36">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I36">
-        <v>82.91437111983946</v>
+        <v>140.5939336379887</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>39.34941525286974</v>
+        <v>66.72292151573566</v>
       </c>
       <c r="C37">
-        <v>0.0189899101091819</v>
+        <v>0.03220028235904757</v>
       </c>
       <c r="D37">
-        <v>6.479814125083228</v>
+        <v>10.98751090774982</v>
       </c>
       <c r="E37">
-        <v>5.916890981567488</v>
+        <v>10.03298905570139</v>
       </c>
       <c r="F37">
-        <v>0.370393330639846</v>
+        <v>0.6280582563023481</v>
       </c>
       <c r="G37">
-        <v>11.32272153386041</v>
+        <v>19.19939738350243</v>
       </c>
       <c r="H37">
-        <v>0.1193925396724186</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I37">
-        <v>63.57761767380232</v>
+        <v>107.8055256207952</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>29.8415421893773</v>
+        <v>50.60087588633542</v>
       </c>
       <c r="C38">
-        <v>0.02146685490603171</v>
+        <v>0.03640031918848856</v>
       </c>
       <c r="D38">
-        <v>5.482919644301193</v>
+        <v>9.297124614249848</v>
       </c>
       <c r="E38">
-        <v>1.972296993855829</v>
+        <v>3.344329685233796</v>
       </c>
       <c r="F38">
-        <v>0.2469288870932308</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G38">
-        <v>7.548481022573606</v>
+        <v>12.79959825566829</v>
       </c>
       <c r="H38">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I38">
-        <v>45.1733318619434</v>
+        <v>76.59825837459968</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>18.68626537725992</v>
+        <v>31.68540650926681</v>
       </c>
       <c r="C39">
-        <v>0.01403602051548227</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D39">
-        <v>4.236801543323648</v>
+        <v>7.184141747374883</v>
       </c>
       <c r="E39">
-        <v>1.365436380361728</v>
+        <v>2.315305166700323</v>
       </c>
       <c r="F39">
-        <v>0.3880311082893626</v>
+        <v>0.6579657923167451</v>
       </c>
       <c r="G39">
-        <v>12.26628166168211</v>
+        <v>20.79934716546096</v>
       </c>
       <c r="H39">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I39">
-        <v>37.01654836126846</v>
+        <v>62.76719069954216</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>14.02646620257796</v>
+        <v>23.78400790871918</v>
       </c>
       <c r="C40">
-        <v>0.0198155583747985</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D40">
-        <v>2.243012581759579</v>
+        <v>3.803369160374938</v>
       </c>
       <c r="E40">
-        <v>0.4551454601205758</v>
+        <v>0.7717683889001071</v>
       </c>
       <c r="F40">
-        <v>0.1587399988456484</v>
+        <v>0.2691678241295777</v>
       </c>
       <c r="G40">
-        <v>8.492041150395307</v>
+        <v>14.39954803762682</v>
       </c>
       <c r="H40">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I40">
-        <v>25.45491722191008</v>
+        <v>43.16268572410841</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>8.943048921106758</v>
+        <v>15.16430034448538</v>
       </c>
       <c r="C41">
-        <v>0.02229250317164831</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="E41">
-        <v>0.1517151533735253</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F41">
-        <v>0.3351177753408133</v>
+        <v>0.5682431842735526</v>
       </c>
       <c r="G41">
-        <v>8.492041150395307</v>
+        <v>14.39954803762682</v>
       </c>
       <c r="H41">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I41">
-        <v>18.00391177322426</v>
+        <v>30.52837213720636</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>5.365829352664057</v>
+        <v>9.098580206691226</v>
       </c>
       <c r="C42">
-        <v>0.0181642618435653</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D42">
-        <v>2.243012581759579</v>
+        <v>3.803369160374938</v>
       </c>
       <c r="F42">
-        <v>0.2469288870932308</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G42">
-        <v>14.15340191732552</v>
+        <v>23.99924672937805</v>
       </c>
       <c r="I42">
-        <v>22.02733700068595</v>
+        <v>37.35070187072835</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>6.636683673031861</v>
+        <v>11.25350709774967</v>
       </c>
       <c r="C43">
-        <v>0.01238472398424906</v>
+        <v>0.02100018414720494</v>
       </c>
       <c r="D43">
-        <v>1.744565341368561</v>
+        <v>2.958176013624951</v>
       </c>
       <c r="E43">
-        <v>0.6068606134941014</v>
+        <v>1.029024518533476</v>
       </c>
       <c r="F43">
-        <v>0.2469288870932308</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G43">
-        <v>17.92764242861231</v>
+        <v>30.3990458572122</v>
       </c>
       <c r="I43">
-        <v>27.17506566758432</v>
+        <v>46.07945917546907</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>10.96700209798881</v>
+        <v>18.59622094876364</v>
       </c>
       <c r="C44">
-        <v>0.01073342745301585</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D44">
-        <v>3.489130682737121</v>
+        <v>5.916352027249903</v>
       </c>
       <c r="E44">
-        <v>0.3034303067470507</v>
+        <v>0.514512259266738</v>
       </c>
       <c r="F44">
-        <v>0.4056688859388789</v>
+        <v>0.687873328331143</v>
       </c>
       <c r="G44">
-        <v>21.70188293989911</v>
+        <v>36.79884498504634</v>
       </c>
       <c r="I44">
-        <v>36.877848340764</v>
+        <v>62.53200370825201</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>24.85226226497037</v>
+        <v>42.1407925362541</v>
       </c>
       <c r="C45">
-        <v>0.01238472398424906</v>
+        <v>0.02100018414720494</v>
       </c>
       <c r="D45">
-        <v>8.224379466451786</v>
+        <v>13.94568692137478</v>
       </c>
       <c r="E45">
-        <v>3.792878834338132</v>
+        <v>6.431403240834228</v>
       </c>
       <c r="F45">
-        <v>1.022991103671956</v>
+        <v>1.734637088835055</v>
       </c>
       <c r="G45">
-        <v>33.96816460158123</v>
+        <v>57.59819215050729</v>
       </c>
       <c r="H45">
-        <v>0.05969626983620929</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I45">
-        <v>71.93275726483394</v>
+        <v>121.9729362316749</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>45.84489289030516</v>
+        <v>77.73699229225663</v>
       </c>
       <c r="C46">
-        <v>0.01321037224986567</v>
+        <v>0.02240019642368526</v>
       </c>
       <c r="D46">
-        <v>14.70419359153501</v>
+        <v>24.9331978291246</v>
       </c>
       <c r="E46">
-        <v>13.65436380361728</v>
+        <v>23.1530516670032</v>
       </c>
       <c r="F46">
-        <v>1.763777764951649</v>
+        <v>2.990753601439752</v>
       </c>
       <c r="G46">
-        <v>55.67004754148034</v>
+        <v>94.39703713555366</v>
       </c>
       <c r="H46">
-        <v>0.2387850793448371</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I46">
-        <v>131.8892710434841</v>
+        <v>223.6383291606906</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>64.53115826756508</v>
+        <v>109.4223988015234</v>
       </c>
       <c r="C47">
-        <v>0.008256482656166042</v>
+        <v>0.01400012276480329</v>
       </c>
       <c r="D47">
-        <v>11.96273376938442</v>
+        <v>20.28463552199967</v>
       </c>
       <c r="E47">
-        <v>10.7717758895203</v>
+        <v>18.2651852039692</v>
       </c>
       <c r="F47">
-        <v>2.045982207343911</v>
+        <v>3.469274177670111</v>
       </c>
       <c r="G47">
-        <v>55.67004754148034</v>
+        <v>94.39703713555366</v>
       </c>
       <c r="H47">
-        <v>0.4775701586896743</v>
+        <v>0.8097928777781435</v>
       </c>
       <c r="I47">
-        <v>145.4675243166399</v>
+        <v>246.662323841259</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>78.88710521986803</v>
+        <v>133.7650914597762</v>
       </c>
       <c r="C48">
-        <v>0.0181642618435653</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D48">
-        <v>19.43944237524969</v>
+        <v>32.96253272324947</v>
       </c>
       <c r="E48">
-        <v>5.765175828193964</v>
+        <v>9.775732926068025</v>
       </c>
       <c r="F48">
-        <v>2.451651093282791</v>
+        <v>4.157147506001256</v>
       </c>
       <c r="G48">
-        <v>80.20261086484456</v>
+        <v>135.9957314664755</v>
       </c>
       <c r="H48">
-        <v>0.596962698362093</v>
+        <v>1.012241097222679</v>
       </c>
       <c r="I48">
-        <v>187.3611123416447</v>
+        <v>317.6992774488758</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>59.40067230756176</v>
+        <v>100.7228791302134</v>
       </c>
       <c r="C49">
-        <v>0.01155907571863246</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D49">
-        <v>18.19332427427214</v>
+        <v>30.84954985637449</v>
       </c>
       <c r="E49">
-        <v>12.28892742325555</v>
+        <v>20.83774650030288</v>
       </c>
       <c r="F49">
-        <v>2.786768868623604</v>
+        <v>4.725390690274805</v>
       </c>
       <c r="G49">
-        <v>128.3241773837514</v>
+        <v>217.593170346361</v>
       </c>
       <c r="H49">
-        <v>1.193925396724186</v>
+        <v>2.024482194445359</v>
       </c>
       <c r="I49">
-        <v>222.1993547299072</v>
+        <v>376.7728188898427</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>89.07031149708254</v>
+        <v>52.39937047917385</v>
       </c>
       <c r="C2">
-        <v>0.03080027008256724</v>
+        <v>0.0181195589842292</v>
       </c>
       <c r="D2">
-        <v>13.94568692137478</v>
+        <v>8.204138991965033</v>
       </c>
       <c r="E2">
-        <v>10.54750131496813</v>
+        <v>6.205012868408923</v>
       </c>
       <c r="F2">
-        <v>5.891784594836309</v>
+        <v>3.466090985641487</v>
       </c>
       <c r="G2">
-        <v>287.9909607525366</v>
+        <v>169.422839030036</v>
       </c>
       <c r="H2">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I2">
-        <v>408.0843900092145</v>
+        <v>240.0728680460593</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>106.8684113750838</v>
+        <v>62.86985400682239</v>
       </c>
       <c r="C3">
-        <v>0.07420065065345745</v>
+        <v>0.04365166482564309</v>
       </c>
       <c r="D3">
-        <v>26.20098754924957</v>
+        <v>15.41383689399491</v>
       </c>
       <c r="E3">
-        <v>4.630610333400646</v>
+        <v>2.724151991008796</v>
       </c>
       <c r="F3">
-        <v>4.785205762303602</v>
+        <v>2.815099277678365</v>
       </c>
       <c r="G3">
-        <v>94.39703713555366</v>
+        <v>55.53304168206737</v>
       </c>
       <c r="H3">
-        <v>1.417137536111751</v>
+        <v>0.833690974316347</v>
       </c>
       <c r="I3">
-        <v>238.3735903423565</v>
+        <v>140.2333264907138</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>114.8496220827077</v>
+        <v>67.56513809993834</v>
       </c>
       <c r="C4">
-        <v>0.0770006752064181</v>
+        <v>0.045298897460573</v>
       </c>
       <c r="D4">
-        <v>24.08800468237461</v>
+        <v>14.17078553157596</v>
       </c>
       <c r="E4">
-        <v>3.344329685233796</v>
+        <v>1.967443104617463</v>
       </c>
       <c r="F4">
-        <v>5.114188658461973</v>
+        <v>3.008637353018752</v>
       </c>
       <c r="G4">
-        <v>87.99723800771952</v>
+        <v>51.7680897036221</v>
       </c>
       <c r="H4">
-        <v>1.315913426389483</v>
+        <v>0.7741416190080362</v>
       </c>
       <c r="I4">
-        <v>236.7862972180935</v>
+        <v>139.2995343092412</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>112.9341315128779</v>
+        <v>66.43826991759052</v>
       </c>
       <c r="C5">
-        <v>0.06860060154753612</v>
+        <v>0.04035719955578322</v>
       </c>
       <c r="D5">
-        <v>21.55242524212465</v>
+        <v>12.67912389667323</v>
       </c>
       <c r="E5">
-        <v>4.887866463034013</v>
+        <v>2.875493768287061</v>
       </c>
       <c r="F5">
-        <v>6.041322274908298</v>
+        <v>3.554062838068936</v>
       </c>
       <c r="G5">
-        <v>91.19713757163652</v>
+        <v>53.65056569284473</v>
       </c>
       <c r="H5">
-        <v>1.315913426389483</v>
+        <v>0.7741416190080362</v>
       </c>
       <c r="I5">
-        <v>237.9973970925184</v>
+        <v>140.0120149320283</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>116.6054884383849</v>
+        <v>68.59810060042383</v>
       </c>
       <c r="C6">
-        <v>0.07420065065345745</v>
+        <v>0.04365166482564309</v>
       </c>
       <c r="D6">
-        <v>27.04618069599955</v>
+        <v>15.91105743896249</v>
       </c>
       <c r="E6">
-        <v>4.887866463034013</v>
+        <v>2.875493768287061</v>
       </c>
       <c r="F6">
-        <v>5.263726338533961</v>
+        <v>3.0966092054462</v>
       </c>
       <c r="G6">
-        <v>73.59768997009267</v>
+        <v>43.29694775212032</v>
       </c>
       <c r="H6">
-        <v>0.9110169875004114</v>
+        <v>0.5359441977747944</v>
       </c>
       <c r="I6">
-        <v>228.386169544199</v>
+        <v>134.3578046278404</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>119.3989121860533</v>
+        <v>70.2414500330144</v>
       </c>
       <c r="C7">
-        <v>0.06720058927105579</v>
+        <v>0.03953358323831826</v>
       </c>
       <c r="D7">
-        <v>29.5817601362495</v>
+        <v>17.40271907386521</v>
       </c>
       <c r="E7">
-        <v>7.4604277593677</v>
+        <v>4.388911541069728</v>
       </c>
       <c r="F7">
-        <v>4.516037938174025</v>
+        <v>2.656749943308956</v>
       </c>
       <c r="G7">
-        <v>62.39804149638294</v>
+        <v>36.70828178984112</v>
       </c>
       <c r="H7">
-        <v>1.417137536111751</v>
+        <v>0.833690974316347</v>
       </c>
       <c r="I7">
-        <v>224.8395176416102</v>
+        <v>132.2713369386541</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>131.6899766757941</v>
+        <v>77.47218753641293</v>
       </c>
       <c r="C8">
-        <v>0.07280063837697712</v>
+        <v>0.0428280485081781</v>
       </c>
       <c r="D8">
-        <v>25.77839097587458</v>
+        <v>15.16522662151112</v>
       </c>
       <c r="E8">
-        <v>9.003964537167912</v>
+        <v>5.296962204739325</v>
       </c>
       <c r="F8">
-        <v>4.456222866145229</v>
+        <v>2.621561202337977</v>
       </c>
       <c r="G8">
-        <v>39.99874454896342</v>
+        <v>23.53094986528276</v>
       </c>
       <c r="H8">
-        <v>2.429378633334431</v>
+        <v>1.429184527399452</v>
       </c>
       <c r="I8">
-        <v>213.4294788756567</v>
+        <v>125.5589000061917</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>146.2157801636695</v>
+        <v>86.01760458588397</v>
       </c>
       <c r="C9">
-        <v>0.04760041740033119</v>
+        <v>0.02800295479380877</v>
       </c>
       <c r="D9">
-        <v>19.86203894862467</v>
+        <v>11.68468280673807</v>
       </c>
       <c r="E9">
-        <v>13.89183100020193</v>
+        <v>8.172455973026386</v>
       </c>
       <c r="F9">
-        <v>4.33659272208764</v>
+        <v>2.551183720396017</v>
       </c>
       <c r="G9">
-        <v>33.59894542112925</v>
+        <v>19.76599788683752</v>
       </c>
       <c r="H9">
-        <v>0.6073446583336077</v>
+        <v>0.3572961318498629</v>
       </c>
       <c r="I9">
-        <v>218.5601333314469</v>
+        <v>128.5772240595256</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>141.9857384886289</v>
+        <v>83.52910401653254</v>
       </c>
       <c r="C10">
-        <v>0.03080027008256724</v>
+        <v>0.0181195589842292</v>
       </c>
       <c r="D10">
-        <v>16.48126636162473</v>
+        <v>9.695800626867769</v>
       </c>
       <c r="E10">
-        <v>18.52244133360258</v>
+        <v>10.89660796403518</v>
       </c>
       <c r="F10">
-        <v>2.332787809123006</v>
+        <v>1.372360897868202</v>
       </c>
       <c r="G10">
-        <v>28.79909607525365</v>
+        <v>16.94228390300359</v>
       </c>
       <c r="H10">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I10">
-        <v>208.2533544480377</v>
+        <v>122.5138263225998</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>100.0843822736035</v>
+        <v>58.87886252767388</v>
       </c>
       <c r="C11">
-        <v>0.02660023325312625</v>
+        <v>0.01564871003183431</v>
       </c>
       <c r="D11">
-        <v>14.36828349474977</v>
+        <v>8.452749264448817</v>
       </c>
       <c r="E11">
-        <v>14.40634325946866</v>
+        <v>8.475139527582922</v>
       </c>
       <c r="F11">
-        <v>1.1963014405759</v>
+        <v>0.7037748194195912</v>
       </c>
       <c r="G11">
-        <v>17.59944760154391</v>
+        <v>10.35361794072443</v>
       </c>
       <c r="H11">
-        <v>0.3036723291668039</v>
+        <v>0.1786480659249315</v>
       </c>
       <c r="I11">
-        <v>147.9850306323616</v>
+        <v>87.05844085580641</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>84.84026982204192</v>
+        <v>49.91086990982241</v>
       </c>
       <c r="C12">
-        <v>0.05600049105921315</v>
+        <v>0.03294465269859854</v>
       </c>
       <c r="D12">
-        <v>9.719721187624845</v>
+        <v>5.718036267127143</v>
       </c>
       <c r="E12">
-        <v>12.09103809276834</v>
+        <v>7.113063532078525</v>
       </c>
       <c r="F12">
-        <v>1.136486368547105</v>
+        <v>0.6685860784486117</v>
       </c>
       <c r="G12">
-        <v>27.19914629329513</v>
+        <v>16.00104590839229</v>
       </c>
       <c r="H12">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I12">
-        <v>135.1438863650588</v>
+        <v>79.50409570387588</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>68.07972733603172</v>
+        <v>40.05077331427895</v>
       </c>
       <c r="C13">
-        <v>0.04200036829440987</v>
+        <v>0.02470848952394892</v>
       </c>
       <c r="D13">
-        <v>7.606738320749876</v>
+        <v>4.4749849047082</v>
       </c>
       <c r="E13">
-        <v>10.29024518533476</v>
+        <v>6.053671091130655</v>
       </c>
       <c r="F13">
-        <v>0.6579657923167451</v>
+        <v>0.3870761506807751</v>
       </c>
       <c r="G13">
-        <v>17.59944760154391</v>
+        <v>10.35361794072443</v>
       </c>
       <c r="H13">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I13">
-        <v>104.478572823716</v>
+        <v>61.46393060166358</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>51.63843327832652</v>
+        <v>30.37848808246012</v>
       </c>
       <c r="C14">
-        <v>0.04760041740033119</v>
+        <v>0.02800295479380877</v>
       </c>
       <c r="D14">
-        <v>6.338948600624897</v>
+        <v>3.729154087256833</v>
       </c>
       <c r="E14">
-        <v>3.344329685233796</v>
+        <v>1.967443104617463</v>
       </c>
       <c r="F14">
-        <v>0.4187055042015653</v>
+        <v>0.2463211867968569</v>
       </c>
       <c r="G14">
-        <v>11.19964847370976</v>
+        <v>6.58866596227918</v>
       </c>
       <c r="H14">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I14">
-        <v>73.08889006921913</v>
+        <v>42.99762473351257</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>32.32390336587675</v>
+        <v>19.01590057711955</v>
       </c>
       <c r="C15">
-        <v>0.03080027008256724</v>
+        <v>0.0181195589842292</v>
       </c>
       <c r="D15">
-        <v>5.071158880499917</v>
+        <v>2.983323269805466</v>
       </c>
       <c r="E15">
-        <v>2.315305166700323</v>
+        <v>1.362075995504398</v>
       </c>
       <c r="F15">
-        <v>0.687873328331143</v>
+        <v>0.404670521166265</v>
       </c>
       <c r="G15">
-        <v>19.19939738350243</v>
+        <v>11.29485593533573</v>
       </c>
       <c r="H15">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I15">
-        <v>59.72966250471539</v>
+        <v>35.13849521322395</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>24.2628805511766</v>
+        <v>14.27366364307245</v>
       </c>
       <c r="C16">
-        <v>0.04340038057089021</v>
+        <v>0.02553210584141387</v>
       </c>
       <c r="D16">
-        <v>2.535579440249959</v>
+        <v>1.491661634902733</v>
       </c>
       <c r="E16">
-        <v>0.7717683889001071</v>
+        <v>0.4540253318347992</v>
       </c>
       <c r="F16">
-        <v>0.2691678241295777</v>
+        <v>0.158349334369408</v>
       </c>
       <c r="G16">
-        <v>12.79959825566829</v>
+        <v>7.52990395689049</v>
       </c>
       <c r="H16">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I16">
-        <v>40.78361895041769</v>
+        <v>23.9926853622196</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>15.48354877279034</v>
+        <v>9.108851140644912</v>
       </c>
       <c r="C17">
-        <v>0.04900042967681151</v>
+        <v>0.02882657111127373</v>
       </c>
       <c r="E17">
-        <v>0.257256129633369</v>
+        <v>0.1513417772782664</v>
       </c>
       <c r="F17">
-        <v>0.5682431842735526</v>
+        <v>0.3342930392243059</v>
       </c>
       <c r="G17">
-        <v>12.79959825566829</v>
+        <v>7.52990395689049</v>
       </c>
       <c r="H17">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I17">
-        <v>29.25887088176463</v>
+        <v>17.21276584045756</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>9.2582044208437</v>
+        <v>5.446529548014486</v>
       </c>
       <c r="C18">
-        <v>0.04060035601792954</v>
+        <v>0.02388487320648394</v>
       </c>
       <c r="D18">
-        <v>2.535579440249959</v>
+        <v>1.491661634902733</v>
       </c>
       <c r="F18">
-        <v>0.4187055042015653</v>
+        <v>0.2463211867968569</v>
       </c>
       <c r="G18">
-        <v>22.39929694741952</v>
+        <v>13.17733192455836</v>
       </c>
       <c r="I18">
-        <v>34.65238666873267</v>
+        <v>20.38572916747892</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>11.49294341897839</v>
+        <v>6.761209094086948</v>
       </c>
       <c r="C19">
-        <v>0.02660023325312625</v>
+        <v>0.01564871003183431</v>
       </c>
       <c r="D19">
-        <v>2.112982866874965</v>
+        <v>1.243051362418945</v>
       </c>
       <c r="E19">
-        <v>1.029024518533476</v>
+        <v>0.6053671091130656</v>
       </c>
       <c r="F19">
-        <v>0.4187055042015653</v>
+        <v>0.2463211867968569</v>
       </c>
       <c r="G19">
-        <v>27.19914629329513</v>
+        <v>16.00104590839229</v>
       </c>
       <c r="I19">
-        <v>42.27940283513664</v>
+        <v>24.87264337083993</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>18.99528148414485</v>
+        <v>11.17477614161592</v>
       </c>
       <c r="C20">
-        <v>0.0238002087001656</v>
+        <v>0.01400147739690438</v>
       </c>
       <c r="D20">
-        <v>4.225965733749931</v>
+        <v>2.48610272483789</v>
       </c>
       <c r="E20">
-        <v>0.514512259266738</v>
+        <v>0.3026835545565328</v>
       </c>
       <c r="F20">
-        <v>0.7177808643455402</v>
+        <v>0.4222648916517548</v>
       </c>
       <c r="G20">
-        <v>33.59894542112925</v>
+        <v>19.76599788683752</v>
       </c>
       <c r="I20">
-        <v>58.07628597133647</v>
+        <v>34.16582667689653</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>43.01872571409275</v>
+        <v>25.30758126189489</v>
       </c>
       <c r="C21">
-        <v>0.02660023325312625</v>
+        <v>0.01564871003183431</v>
       </c>
       <c r="D21">
-        <v>9.719721187624845</v>
+        <v>5.718036267127143</v>
       </c>
       <c r="E21">
-        <v>6.688659370467593</v>
+        <v>3.934886209234926</v>
       </c>
       <c r="F21">
-        <v>1.794452160863851</v>
+        <v>1.055662229129387</v>
       </c>
       <c r="G21">
-        <v>52.79834280463167</v>
+        <v>31.06085382217326</v>
       </c>
       <c r="H21">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I21">
-        <v>114.1477255806561</v>
+        <v>67.15221785489975</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>79.33323443378136</v>
+        <v>46.67112388557239</v>
       </c>
       <c r="C22">
-        <v>0.0294002578060869</v>
+        <v>0.01729594266676424</v>
       </c>
       <c r="D22">
-        <v>17.32645950837471</v>
+        <v>10.19302117183534</v>
       </c>
       <c r="E22">
-        <v>23.92482005590331</v>
+        <v>14.07478528687877</v>
       </c>
       <c r="F22">
-        <v>3.080476209482944</v>
+        <v>1.812220160005448</v>
       </c>
       <c r="G22">
-        <v>86.39728822576102</v>
+        <v>50.82685170901079</v>
       </c>
       <c r="H22">
-        <v>0.4048964388890717</v>
+        <v>0.2381974212332419</v>
       </c>
       <c r="I22">
-        <v>210.4965751299985</v>
+        <v>123.8334955772028</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>111.6571377996581</v>
+        <v>65.68702446269195</v>
       </c>
       <c r="C23">
-        <v>0.01820015959424428</v>
+        <v>0.01070701212704453</v>
       </c>
       <c r="D23">
-        <v>13.94568692137478</v>
+        <v>8.204138991965033</v>
       </c>
       <c r="E23">
-        <v>18.77969746323593</v>
+        <v>11.04794974131345</v>
       </c>
       <c r="F23">
-        <v>3.558996785713305</v>
+        <v>2.093730087773283</v>
       </c>
       <c r="G23">
-        <v>86.39728822576102</v>
+        <v>50.82685170901079</v>
       </c>
       <c r="H23">
-        <v>0.7085687680558757</v>
+        <v>0.4168454871581735</v>
       </c>
       <c r="I23">
-        <v>235.0655761233933</v>
+        <v>138.2872474920397</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>136.4787031003683</v>
+        <v>80.28935799228249</v>
       </c>
       <c r="C24">
-        <v>0.03920034374144922</v>
+        <v>0.02306125688901899</v>
       </c>
       <c r="D24">
-        <v>22.82021496224963</v>
+        <v>13.4249547141246</v>
       </c>
       <c r="E24">
-        <v>10.03298905570139</v>
+        <v>5.90232931385239</v>
       </c>
       <c r="F24">
-        <v>4.276777650058844</v>
+        <v>2.515994979425039</v>
       </c>
       <c r="G24">
-        <v>124.7960829927659</v>
+        <v>73.41656357968225</v>
       </c>
       <c r="H24">
-        <v>0.9110169875004114</v>
+        <v>0.5359441977747944</v>
       </c>
       <c r="I24">
-        <v>299.354985092386</v>
+        <v>176.1082060340306</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>102.7979939141956</v>
+        <v>60.47525911933323</v>
       </c>
       <c r="C25">
-        <v>0.02520022097664593</v>
+        <v>0.01482509371436935</v>
       </c>
       <c r="D25">
-        <v>21.55242524212465</v>
+        <v>12.67912389667323</v>
       </c>
       <c r="E25">
-        <v>21.35225875956963</v>
+        <v>12.56136751409611</v>
       </c>
       <c r="F25">
-        <v>4.845020834332398</v>
+        <v>2.850288018649343</v>
       </c>
       <c r="G25">
-        <v>199.9937227448169</v>
+        <v>117.6547493264139</v>
       </c>
       <c r="H25">
-        <v>1.822033975000823</v>
+        <v>1.071888395549589</v>
       </c>
       <c r="I25">
-        <v>352.3886556910167</v>
+        <v>207.3075013644298</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>87.31444514140529</v>
+        <v>51.36640797868835</v>
       </c>
       <c r="C26">
-        <v>0.0238002087001656</v>
+        <v>0.01400147739690438</v>
       </c>
       <c r="D26">
-        <v>20.28463552199967</v>
+        <v>11.93329307922186</v>
       </c>
       <c r="E26">
-        <v>10.29024518533476</v>
+        <v>6.053671091130655</v>
       </c>
       <c r="F26">
-        <v>5.742246914764322</v>
+        <v>3.378119133214039</v>
       </c>
       <c r="G26">
-        <v>313.5901572638733</v>
+        <v>184.4826469438169</v>
       </c>
       <c r="H26">
-        <v>0.7085687680558757</v>
+        <v>0.4168454871581735</v>
       </c>
       <c r="I26">
-        <v>437.9540990041334</v>
+        <v>257.6449851906269</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>104.7134844840254</v>
+        <v>61.60212730168108</v>
       </c>
       <c r="C27">
-        <v>0.05740050333569349</v>
+        <v>0.03376826901606352</v>
       </c>
       <c r="D27">
-        <v>37.61109503037439</v>
+        <v>22.12631425105721</v>
       </c>
       <c r="E27">
-        <v>4.373354203767273</v>
+        <v>2.572810213730529</v>
       </c>
       <c r="F27">
-        <v>4.665575618246012</v>
+        <v>2.744721795736405</v>
       </c>
       <c r="G27">
-        <v>102.3967860453463</v>
+        <v>60.23923165512392</v>
       </c>
       <c r="H27">
-        <v>1.518361645834019</v>
+        <v>0.8932403296246572</v>
       </c>
       <c r="I27">
-        <v>255.3360575309291</v>
+        <v>150.2122138159699</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>112.5350709774968</v>
+        <v>66.2035057129347</v>
       </c>
       <c r="C28">
-        <v>0.05880051561217381</v>
+        <v>0.03459188533352848</v>
       </c>
       <c r="D28">
-        <v>34.65291901674943</v>
+        <v>20.38604234367068</v>
       </c>
       <c r="E28">
-        <v>3.344329685233796</v>
+        <v>1.967443104617463</v>
       </c>
       <c r="F28">
-        <v>4.994558514404384</v>
+        <v>2.938259871076792</v>
       </c>
       <c r="G28">
-        <v>95.99698691751222</v>
+        <v>56.47427967667867</v>
       </c>
       <c r="H28">
-        <v>1.417137536111751</v>
+        <v>0.833690974316347</v>
       </c>
       <c r="I28">
-        <v>252.9998031631205</v>
+        <v>148.8378135686282</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>110.6993925147432</v>
+        <v>65.12359037151803</v>
       </c>
       <c r="C29">
-        <v>0.0532004665062525</v>
+        <v>0.03129742006366861</v>
       </c>
       <c r="D29">
-        <v>30.84954985637449</v>
+        <v>18.14854989131659</v>
       </c>
       <c r="E29">
-        <v>4.630610333400646</v>
+        <v>2.724151991008796</v>
       </c>
       <c r="F29">
-        <v>5.891784594836309</v>
+        <v>3.466090985641487</v>
       </c>
       <c r="G29">
-        <v>99.1968864814292</v>
+        <v>58.35675566590125</v>
       </c>
       <c r="H29">
-        <v>1.417137536111751</v>
+        <v>0.833690974316347</v>
       </c>
       <c r="I29">
-        <v>252.7385617834019</v>
+        <v>148.6841272997662</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>114.290937333174</v>
+        <v>67.2364682134202</v>
       </c>
       <c r="C30">
-        <v>0.05740050333569349</v>
+        <v>0.03376826901606352</v>
       </c>
       <c r="D30">
-        <v>38.87888475049938</v>
+        <v>22.87214506850857</v>
       </c>
       <c r="E30">
-        <v>4.630610333400646</v>
+        <v>2.724151991008796</v>
       </c>
       <c r="F30">
-        <v>5.144096194476371</v>
+        <v>3.026231723504242</v>
       </c>
       <c r="G30">
-        <v>79.99748909792685</v>
+        <v>47.06189973056551</v>
       </c>
       <c r="H30">
-        <v>1.012241097222679</v>
+        <v>0.5954935530831049</v>
       </c>
       <c r="I30">
-        <v>244.0116593100357</v>
+        <v>143.5501585491065</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>117.0045489737661</v>
+        <v>68.83286480507961</v>
       </c>
       <c r="C31">
-        <v>0.05180045422977217</v>
+        <v>0.03047380374620366</v>
       </c>
       <c r="D31">
-        <v>42.68225391087427</v>
+        <v>25.10963752086267</v>
       </c>
       <c r="E31">
-        <v>7.203171629734332</v>
+        <v>4.237569763791461</v>
       </c>
       <c r="F31">
-        <v>4.396407794116433</v>
+        <v>2.586372461366997</v>
       </c>
       <c r="G31">
-        <v>67.1978908422585</v>
+        <v>39.53199577367505</v>
       </c>
       <c r="H31">
-        <v>1.518361645834019</v>
+        <v>0.8932403296246572</v>
       </c>
       <c r="I31">
-        <v>240.0544352508135</v>
+        <v>141.2221544581466</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>129.0561771422782</v>
+        <v>75.92274378568466</v>
       </c>
       <c r="C32">
-        <v>0.05600049105921315</v>
+        <v>0.03294465269859854</v>
       </c>
       <c r="D32">
-        <v>37.18849845699939</v>
+        <v>21.87770397857341</v>
       </c>
       <c r="E32">
-        <v>8.746708407534546</v>
+        <v>5.145620427461059</v>
       </c>
       <c r="F32">
-        <v>4.33659272208764</v>
+        <v>2.551183720396017</v>
       </c>
       <c r="G32">
-        <v>43.19864411288051</v>
+        <v>25.41342585450539</v>
       </c>
       <c r="H32">
-        <v>2.631826852778966</v>
+        <v>1.548283238016072</v>
       </c>
       <c r="I32">
-        <v>225.2144481856185</v>
+        <v>132.4919056573352</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>143.2627322018487</v>
+        <v>84.28034947143107</v>
       </c>
       <c r="C33">
-        <v>0.03640031918848856</v>
+        <v>0.02141402425408905</v>
       </c>
       <c r="D33">
-        <v>28.73656698949953</v>
+        <v>16.90549852889763</v>
       </c>
       <c r="E33">
-        <v>13.37731874093519</v>
+        <v>7.869772418469852</v>
       </c>
       <c r="F33">
-        <v>4.216962578030048</v>
+        <v>2.480806238454059</v>
       </c>
       <c r="G33">
-        <v>36.79884498504634</v>
+        <v>21.64847387606016</v>
       </c>
       <c r="H33">
-        <v>0.7085687680558757</v>
+        <v>0.4168454871581735</v>
       </c>
       <c r="I33">
-        <v>227.1373945826041</v>
+        <v>133.623160044725</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>139.1125026338842</v>
+        <v>81.83880174301081</v>
       </c>
       <c r="C34">
-        <v>0.0238002087001656</v>
+        <v>0.01400147739690438</v>
       </c>
       <c r="D34">
-        <v>23.66540810899961</v>
+        <v>13.92217525909217</v>
       </c>
       <c r="E34">
-        <v>18.00792907433582</v>
+        <v>10.59392440947865</v>
       </c>
       <c r="F34">
-        <v>2.27297273709421</v>
+        <v>1.337172156897223</v>
       </c>
       <c r="G34">
-        <v>31.99899563917074</v>
+        <v>18.82475989222621</v>
       </c>
       <c r="H34">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I34">
-        <v>215.182832511907</v>
+        <v>126.5903842934103</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>98.08907959669759</v>
+        <v>57.70504150439486</v>
       </c>
       <c r="C35">
-        <v>0.02100018414720494</v>
+        <v>0.01235424476197446</v>
       </c>
       <c r="D35">
-        <v>20.70723209537466</v>
+        <v>12.18190335170565</v>
       </c>
       <c r="E35">
-        <v>13.89183100020193</v>
+        <v>8.172455973026386</v>
       </c>
       <c r="F35">
-        <v>1.166393904561503</v>
+        <v>0.6861804489341012</v>
       </c>
       <c r="G35">
-        <v>19.19939738350243</v>
+        <v>11.29485593533573</v>
       </c>
       <c r="H35">
-        <v>0.3036723291668039</v>
+        <v>0.1786480659249315</v>
       </c>
       <c r="I35">
-        <v>153.3786064936521</v>
+        <v>90.23143952408364</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>83.16421557344087</v>
+        <v>48.92486025026806</v>
       </c>
       <c r="C36">
-        <v>0.04340038057089021</v>
+        <v>0.02553210584141387</v>
       </c>
       <c r="D36">
-        <v>13.94568692137478</v>
+        <v>8.204138991965033</v>
       </c>
       <c r="E36">
-        <v>11.83378196313498</v>
+        <v>6.961721754800255</v>
       </c>
       <c r="F36">
-        <v>1.106578832532708</v>
+        <v>0.6509917079631217</v>
       </c>
       <c r="G36">
-        <v>30.3990458572122</v>
+        <v>17.88352189761491</v>
       </c>
       <c r="H36">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I36">
-        <v>140.5939336379887</v>
+        <v>82.71031606376108</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>66.72292151573566</v>
+        <v>39.25257501844922</v>
       </c>
       <c r="C37">
-        <v>0.03220028235904757</v>
+        <v>0.01894317530169416</v>
       </c>
       <c r="D37">
-        <v>10.98751090774982</v>
+        <v>6.46386708457851</v>
       </c>
       <c r="E37">
-        <v>10.03298905570139</v>
+        <v>5.90232931385239</v>
       </c>
       <c r="F37">
-        <v>0.6280582563023481</v>
+        <v>0.3694817801952853</v>
       </c>
       <c r="G37">
-        <v>19.19939738350243</v>
+        <v>11.29485593533573</v>
       </c>
       <c r="H37">
-        <v>0.2024482194445359</v>
+        <v>0.119098710616621</v>
       </c>
       <c r="I37">
-        <v>107.8055256207952</v>
+        <v>63.42115101832945</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>50.60087588633542</v>
+        <v>29.76810115035504</v>
       </c>
       <c r="C38">
-        <v>0.03640031918848856</v>
+        <v>0.02141402425408905</v>
       </c>
       <c r="D38">
-        <v>9.297124614249848</v>
+        <v>5.469425994643353</v>
       </c>
       <c r="E38">
-        <v>3.344329685233796</v>
+        <v>1.967443104617463</v>
       </c>
       <c r="F38">
-        <v>0.4187055042015653</v>
+        <v>0.2463211867968569</v>
       </c>
       <c r="G38">
-        <v>12.79959825566829</v>
+        <v>7.52990395689049</v>
       </c>
       <c r="H38">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I38">
-        <v>76.59825837459968</v>
+        <v>45.06215877286561</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>31.68540650926681</v>
+        <v>18.64027784967027</v>
       </c>
       <c r="C39">
-        <v>0.0238002087001656</v>
+        <v>0.01400147739690438</v>
       </c>
       <c r="D39">
-        <v>7.184141747374883</v>
+        <v>4.226374632224409</v>
       </c>
       <c r="E39">
-        <v>2.315305166700323</v>
+        <v>1.362075995504398</v>
       </c>
       <c r="F39">
-        <v>0.6579657923167451</v>
+        <v>0.3870761506807751</v>
       </c>
       <c r="G39">
-        <v>20.79934716546096</v>
+        <v>12.23609392994705</v>
       </c>
       <c r="H39">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I39">
-        <v>62.76719069954216</v>
+        <v>36.92544939073212</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>23.78400790871918</v>
+        <v>13.99194659748549</v>
       </c>
       <c r="C40">
-        <v>0.0336002946355279</v>
+        <v>0.01976679161915913</v>
       </c>
       <c r="D40">
-        <v>3.803369160374938</v>
+        <v>2.2374924523541</v>
       </c>
       <c r="E40">
-        <v>0.7717683889001071</v>
+        <v>0.4540253318347992</v>
       </c>
       <c r="F40">
-        <v>0.2691678241295777</v>
+        <v>0.158349334369408</v>
       </c>
       <c r="G40">
-        <v>14.39954803762682</v>
+        <v>8.471141951501796</v>
       </c>
       <c r="H40">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I40">
-        <v>43.16268572410841</v>
+        <v>25.39227181447306</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>15.16430034448538</v>
+        <v>8.921039776920276</v>
       </c>
       <c r="C41">
-        <v>0.03780033146496888</v>
+        <v>0.02223764057155402</v>
       </c>
       <c r="E41">
-        <v>0.257256129633369</v>
+        <v>0.1513417772782664</v>
       </c>
       <c r="F41">
-        <v>0.5682431842735526</v>
+        <v>0.3342930392243059</v>
       </c>
       <c r="G41">
-        <v>14.39954803762682</v>
+        <v>8.471141951501796</v>
       </c>
       <c r="H41">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I41">
-        <v>30.52837213720636</v>
+        <v>17.95960354080451</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>9.098580206691226</v>
+        <v>5.352623866152167</v>
       </c>
       <c r="C42">
-        <v>0.03080027008256724</v>
+        <v>0.0181195589842292</v>
       </c>
       <c r="D42">
-        <v>3.803369160374938</v>
+        <v>2.2374924523541</v>
       </c>
       <c r="F42">
-        <v>0.4187055042015653</v>
+        <v>0.2463211867968569</v>
       </c>
       <c r="G42">
-        <v>23.99924672937805</v>
+        <v>14.11856991916967</v>
       </c>
       <c r="I42">
-        <v>37.35070187072835</v>
+        <v>21.97312698345702</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>11.25350709774967</v>
+        <v>6.62035057129347</v>
       </c>
       <c r="C43">
-        <v>0.02100018414720494</v>
+        <v>0.01235424476197446</v>
       </c>
       <c r="D43">
-        <v>2.958176013624951</v>
+        <v>1.740271907386521</v>
       </c>
       <c r="E43">
-        <v>1.029024518533476</v>
+        <v>0.6053671091130656</v>
       </c>
       <c r="F43">
-        <v>0.4187055042015653</v>
+        <v>0.2463211867968569</v>
       </c>
       <c r="G43">
-        <v>30.3990458572122</v>
+        <v>17.88352189761491</v>
       </c>
       <c r="I43">
-        <v>46.07945917546907</v>
+        <v>27.10818691696679</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>18.59622094876364</v>
+        <v>10.94001193696013</v>
       </c>
       <c r="C44">
-        <v>0.01820015959424428</v>
+        <v>0.01070701212704453</v>
       </c>
       <c r="D44">
-        <v>5.916352027249903</v>
+        <v>3.480543814773042</v>
       </c>
       <c r="E44">
-        <v>0.514512259266738</v>
+        <v>0.3026835545565328</v>
       </c>
       <c r="F44">
-        <v>0.687873328331143</v>
+        <v>0.404670521166265</v>
       </c>
       <c r="G44">
-        <v>36.79884498504634</v>
+        <v>21.64847387606016</v>
       </c>
       <c r="I44">
-        <v>62.53200370825201</v>
+        <v>36.78709071564317</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>42.1407925362541</v>
+        <v>24.79110001165214</v>
       </c>
       <c r="C45">
-        <v>0.02100018414720494</v>
+        <v>0.01235424476197446</v>
       </c>
       <c r="D45">
-        <v>13.94568692137478</v>
+        <v>8.204138991965033</v>
       </c>
       <c r="E45">
-        <v>6.431403240834228</v>
+        <v>3.783544431956661</v>
       </c>
       <c r="F45">
-        <v>1.734637088835055</v>
+        <v>1.020473488158407</v>
       </c>
       <c r="G45">
-        <v>57.59819215050729</v>
+        <v>33.88456780600718</v>
       </c>
       <c r="H45">
-        <v>0.1012241097222679</v>
+        <v>0.05954935530831048</v>
       </c>
       <c r="I45">
-        <v>121.9729362316749</v>
+        <v>71.75572832980971</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>77.73699229225663</v>
+        <v>45.73206706694925</v>
       </c>
       <c r="C46">
-        <v>0.02240019642368526</v>
+        <v>0.01317786107943942</v>
       </c>
       <c r="D46">
-        <v>24.9331978291246</v>
+        <v>14.66800607654354</v>
       </c>
       <c r="E46">
-        <v>23.1530516670032</v>
+        <v>13.62075995504397</v>
       </c>
       <c r="F46">
-        <v>2.990753601439752</v>
+        <v>1.759437048548978</v>
       </c>
       <c r="G46">
-        <v>94.39703713555366</v>
+        <v>55.53304168206737</v>
       </c>
       <c r="H46">
-        <v>0.4048964388890717</v>
+        <v>0.2381974212332419</v>
       </c>
       <c r="I46">
-        <v>223.6383291606906</v>
+        <v>131.5646871114658</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>109.4223988015234</v>
+        <v>64.3723449166195</v>
       </c>
       <c r="C47">
-        <v>0.01400012276480329</v>
+        <v>0.008236163174649636</v>
       </c>
       <c r="D47">
-        <v>20.28463552199967</v>
+        <v>11.93329307922186</v>
       </c>
       <c r="E47">
-        <v>18.2651852039692</v>
+        <v>10.74526618675691</v>
       </c>
       <c r="F47">
-        <v>3.469274177670111</v>
+        <v>2.040946976316814</v>
       </c>
       <c r="G47">
-        <v>94.39703713555366</v>
+        <v>55.53304168206737</v>
       </c>
       <c r="H47">
-        <v>0.8097928777781435</v>
+        <v>0.4763948424664838</v>
       </c>
       <c r="I47">
-        <v>246.662323841259</v>
+        <v>145.1095238466236</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>133.7650914597762</v>
+        <v>78.69296140062308</v>
       </c>
       <c r="C48">
-        <v>0.03080027008256724</v>
+        <v>0.0181195589842292</v>
       </c>
       <c r="D48">
-        <v>32.96253272324947</v>
+        <v>19.39160125373554</v>
       </c>
       <c r="E48">
-        <v>9.775732926068025</v>
+        <v>5.750987536574121</v>
       </c>
       <c r="F48">
-        <v>4.157147506001256</v>
+        <v>2.445617497483078</v>
       </c>
       <c r="G48">
-        <v>135.9957314664755</v>
+        <v>80.00522954196144</v>
       </c>
       <c r="H48">
-        <v>1.012241097222679</v>
+        <v>0.5954935530831049</v>
       </c>
       <c r="I48">
-        <v>317.6992774488758</v>
+        <v>186.9000103424446</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>100.7228791302134</v>
+        <v>59.25448525512315</v>
       </c>
       <c r="C49">
-        <v>0.01960017187072461</v>
+        <v>0.01153062844450949</v>
       </c>
       <c r="D49">
-        <v>30.84954985637449</v>
+        <v>18.14854989131659</v>
       </c>
       <c r="E49">
-        <v>20.83774650030288</v>
+        <v>12.25868395953959</v>
       </c>
       <c r="F49">
-        <v>4.725390690274805</v>
+        <v>2.779910536707384</v>
       </c>
       <c r="G49">
-        <v>217.593170346361</v>
+        <v>128.0083672671383</v>
       </c>
       <c r="H49">
-        <v>2.024482194445359</v>
+        <v>1.19098710616621</v>
       </c>
       <c r="I49">
-        <v>376.7728188898427</v>
+        <v>221.6525146444357</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_E_겨울_배출량/경기동로_E_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>52.39937047917385</v>
+        <v>89.07031149708254</v>
       </c>
       <c r="C2">
-        <v>0.0181195589842292</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D2">
-        <v>8.204138991965033</v>
+        <v>13.94568692137478</v>
       </c>
       <c r="E2">
-        <v>6.205012868408923</v>
+        <v>10.54750131496813</v>
       </c>
       <c r="F2">
-        <v>3.466090985641487</v>
+        <v>5.891784594836309</v>
       </c>
       <c r="G2">
-        <v>169.422839030036</v>
+        <v>287.9909607525366</v>
       </c>
       <c r="H2">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I2">
-        <v>240.0728680460593</v>
+        <v>408.0843900092145</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>62.86985400682239</v>
+        <v>106.8684113750838</v>
       </c>
       <c r="C3">
-        <v>0.04365166482564309</v>
+        <v>0.07420065065345745</v>
       </c>
       <c r="D3">
-        <v>15.41383689399491</v>
+        <v>26.20098754924957</v>
       </c>
       <c r="E3">
-        <v>2.724151991008796</v>
+        <v>4.630610333400646</v>
       </c>
       <c r="F3">
-        <v>2.815099277678365</v>
+        <v>4.785205762303602</v>
       </c>
       <c r="G3">
-        <v>55.53304168206737</v>
+        <v>94.39703713555366</v>
       </c>
       <c r="H3">
-        <v>0.833690974316347</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I3">
-        <v>140.2333264907138</v>
+        <v>238.3735903423565</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>67.56513809993834</v>
+        <v>114.8496220827077</v>
       </c>
       <c r="C4">
-        <v>0.045298897460573</v>
+        <v>0.0770006752064181</v>
       </c>
       <c r="D4">
-        <v>14.17078553157596</v>
+        <v>24.08800468237461</v>
       </c>
       <c r="E4">
-        <v>1.967443104617463</v>
+        <v>3.344329685233796</v>
       </c>
       <c r="F4">
-        <v>3.008637353018752</v>
+        <v>5.114188658461973</v>
       </c>
       <c r="G4">
-        <v>51.7680897036221</v>
+        <v>87.99723800771952</v>
       </c>
       <c r="H4">
-        <v>0.7741416190080362</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I4">
-        <v>139.2995343092412</v>
+        <v>236.7862972180935</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>66.43826991759052</v>
+        <v>112.9341315128779</v>
       </c>
       <c r="C5">
-        <v>0.04035719955578322</v>
+        <v>0.06860060154753612</v>
       </c>
       <c r="D5">
-        <v>12.67912389667323</v>
+        <v>21.55242524212465</v>
       </c>
       <c r="E5">
-        <v>2.875493768287061</v>
+        <v>4.887866463034013</v>
       </c>
       <c r="F5">
-        <v>3.554062838068936</v>
+        <v>6.041322274908298</v>
       </c>
       <c r="G5">
-        <v>53.65056569284473</v>
+        <v>91.19713757163652</v>
       </c>
       <c r="H5">
-        <v>0.7741416190080362</v>
+        <v>1.315913426389483</v>
       </c>
       <c r="I5">
-        <v>140.0120149320283</v>
+        <v>237.9973970925184</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>68.59810060042383</v>
+        <v>116.6054884383849</v>
       </c>
       <c r="C6">
-        <v>0.04365166482564309</v>
+        <v>0.07420065065345745</v>
       </c>
       <c r="D6">
-        <v>15.91105743896249</v>
+        <v>27.04618069599955</v>
       </c>
       <c r="E6">
-        <v>2.875493768287061</v>
+        <v>4.887866463034013</v>
       </c>
       <c r="F6">
-        <v>3.0966092054462</v>
+        <v>5.263726338533961</v>
       </c>
       <c r="G6">
-        <v>43.29694775212032</v>
+        <v>73.59768997009267</v>
       </c>
       <c r="H6">
-        <v>0.5359441977747944</v>
+        <v>0.9110169875004114</v>
       </c>
       <c r="I6">
-        <v>134.3578046278404</v>
+        <v>228.386169544199</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>70.2414500330144</v>
+        <v>119.3989121860533</v>
       </c>
       <c r="C7">
-        <v>0.03953358323831826</v>
+        <v>0.06720058927105579</v>
       </c>
       <c r="D7">
-        <v>17.40271907386521</v>
+        <v>29.5817601362495</v>
       </c>
       <c r="E7">
-        <v>4.388911541069728</v>
+        <v>7.4604277593677</v>
       </c>
       <c r="F7">
-        <v>2.656749943308956</v>
+        <v>4.516037938174025</v>
       </c>
       <c r="G7">
-        <v>36.70828178984112</v>
+        <v>62.39804149638294</v>
       </c>
       <c r="H7">
-        <v>0.833690974316347</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I7">
-        <v>132.2713369386541</v>
+        <v>224.8395176416102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>77.47218753641293</v>
+        <v>131.6899766757941</v>
       </c>
       <c r="C8">
-        <v>0.0428280485081781</v>
+        <v>0.07280063837697712</v>
       </c>
       <c r="D8">
-        <v>15.16522662151112</v>
+        <v>25.77839097587458</v>
       </c>
       <c r="E8">
-        <v>5.296962204739325</v>
+        <v>9.003964537167912</v>
       </c>
       <c r="F8">
-        <v>2.621561202337977</v>
+        <v>4.456222866145229</v>
       </c>
       <c r="G8">
-        <v>23.53094986528276</v>
+        <v>39.99874454896342</v>
       </c>
       <c r="H8">
-        <v>1.429184527399452</v>
+        <v>2.429378633334431</v>
       </c>
       <c r="I8">
-        <v>125.5589000061917</v>
+        <v>213.4294788756567</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>86.01760458588397</v>
+        <v>146.2157801636695</v>
       </c>
       <c r="C9">
-        <v>0.02800295479380877</v>
+        <v>0.04760041740033119</v>
       </c>
       <c r="D9">
-        <v>11.68468280673807</v>
+        <v>19.86203894862467</v>
       </c>
       <c r="E9">
-        <v>8.172455973026386</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F9">
-        <v>2.551183720396017</v>
+        <v>4.33659272208764</v>
       </c>
       <c r="G9">
-        <v>19.76599788683752</v>
+        <v>33.59894542112925</v>
       </c>
       <c r="H9">
-        <v>0.3572961318498629</v>
+        <v>0.6073446583336077</v>
       </c>
       <c r="I9">
-        <v>128.5772240595256</v>
+        <v>218.5601333314469</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>83.52910401653254</v>
+        <v>141.9857384886289</v>
       </c>
       <c r="C10">
-        <v>0.0181195589842292</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D10">
-        <v>9.695800626867769</v>
+        <v>16.48126636162473</v>
       </c>
       <c r="E10">
-        <v>10.89660796403518</v>
+        <v>18.52244133360258</v>
       </c>
       <c r="F10">
-        <v>1.372360897868202</v>
+        <v>2.332787809123006</v>
       </c>
       <c r="G10">
-        <v>16.94228390300359</v>
+        <v>28.79909607525365</v>
       </c>
       <c r="H10">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I10">
-        <v>122.5138263225998</v>
+        <v>208.2533544480377</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>58.87886252767388</v>
+        <v>100.0843822736035</v>
       </c>
       <c r="C11">
-        <v>0.01564871003183431</v>
+        <v>0.02660023325312625</v>
       </c>
       <c r="D11">
-        <v>8.452749264448817</v>
+        <v>14.36828349474977</v>
       </c>
       <c r="E11">
-        <v>8.475139527582922</v>
+        <v>14.40634325946866</v>
       </c>
       <c r="F11">
-        <v>0.7037748194195912</v>
+        <v>1.1963014405759</v>
       </c>
       <c r="G11">
-        <v>10.35361794072443</v>
+        <v>17.59944760154391</v>
       </c>
       <c r="H11">
-        <v>0.1786480659249315</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I11">
-        <v>87.05844085580641</v>
+        <v>147.9850306323616</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>49.91086990982241</v>
+        <v>84.84026982204192</v>
       </c>
       <c r="C12">
-        <v>0.03294465269859854</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D12">
-        <v>5.718036267127143</v>
+        <v>9.719721187624845</v>
       </c>
       <c r="E12">
-        <v>7.113063532078525</v>
+        <v>12.09103809276834</v>
       </c>
       <c r="F12">
-        <v>0.6685860784486117</v>
+        <v>1.136486368547105</v>
       </c>
       <c r="G12">
-        <v>16.00104590839229</v>
+        <v>27.19914629329513</v>
       </c>
       <c r="H12">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I12">
-        <v>79.50409570387588</v>
+        <v>135.1438863650588</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>40.05077331427895</v>
+        <v>68.07972733603172</v>
       </c>
       <c r="C13">
-        <v>0.02470848952394892</v>
+        <v>0.04200036829440987</v>
       </c>
       <c r="D13">
-        <v>4.4749849047082</v>
+        <v>7.606738320749876</v>
       </c>
       <c r="E13">
-        <v>6.053671091130655</v>
+        <v>10.29024518533476</v>
       </c>
       <c r="F13">
-        <v>0.3870761506807751</v>
+        <v>0.6579657923167451</v>
       </c>
       <c r="G13">
-        <v>10.35361794072443</v>
+        <v>17.59944760154391</v>
       </c>
       <c r="H13">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I13">
-        <v>61.46393060166358</v>
+        <v>104.478572823716</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>30.37848808246012</v>
+        <v>51.63843327832652</v>
       </c>
       <c r="C14">
-        <v>0.02800295479380877</v>
+        <v>0.04760041740033119</v>
       </c>
       <c r="D14">
-        <v>3.729154087256833</v>
+        <v>6.338948600624897</v>
       </c>
       <c r="E14">
-        <v>1.967443104617463</v>
+        <v>3.344329685233796</v>
       </c>
       <c r="F14">
-        <v>0.2463211867968569</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G14">
-        <v>6.58866596227918</v>
+        <v>11.19964847370976</v>
       </c>
       <c r="H14">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I14">
-        <v>42.99762473351257</v>
+        <v>73.08889006921913</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>19.01590057711955</v>
+        <v>32.32390336587675</v>
       </c>
       <c r="C15">
-        <v>0.0181195589842292</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D15">
-        <v>2.983323269805466</v>
+        <v>5.071158880499917</v>
       </c>
       <c r="E15">
-        <v>1.362075995504398</v>
+        <v>2.315305166700323</v>
       </c>
       <c r="F15">
-        <v>0.404670521166265</v>
+        <v>0.687873328331143</v>
       </c>
       <c r="G15">
-        <v>11.29485593533573</v>
+        <v>19.19939738350243</v>
       </c>
       <c r="H15">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I15">
-        <v>35.13849521322395</v>
+        <v>59.72966250471539</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>14.27366364307245</v>
+        <v>24.2628805511766</v>
       </c>
       <c r="C16">
-        <v>0.02553210584141387</v>
+        <v>0.04340038057089021</v>
       </c>
       <c r="D16">
-        <v>1.491661634902733</v>
+        <v>2.535579440249959</v>
       </c>
       <c r="E16">
-        <v>0.4540253318347992</v>
+        <v>0.7717683889001071</v>
       </c>
       <c r="F16">
-        <v>0.158349334369408</v>
+        <v>0.2691678241295777</v>
       </c>
       <c r="G16">
-        <v>7.52990395689049</v>
+        <v>12.79959825566829</v>
       </c>
       <c r="H16">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I16">
-        <v>23.9926853622196</v>
+        <v>40.78361895041769</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>9.108851140644912</v>
+        <v>15.48354877279034</v>
       </c>
       <c r="C17">
-        <v>0.02882657111127373</v>
+        <v>0.04900042967681151</v>
       </c>
       <c r="E17">
-        <v>0.1513417772782664</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F17">
-        <v>0.3342930392243059</v>
+        <v>0.5682431842735526</v>
       </c>
       <c r="G17">
-        <v>7.52990395689049</v>
+        <v>12.79959825566829</v>
       </c>
       <c r="H17">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I17">
-        <v>17.21276584045756</v>
+        <v>29.25887088176463</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,22 +899,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>5.446529548014486</v>
+        <v>9.2582044208437</v>
       </c>
       <c r="C18">
-        <v>0.02388487320648394</v>
+        <v>0.04060035601792954</v>
       </c>
       <c r="D18">
-        <v>1.491661634902733</v>
+        <v>2.535579440249959</v>
       </c>
       <c r="F18">
-        <v>0.2463211867968569</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G18">
-        <v>13.17733192455836</v>
+        <v>22.39929694741952</v>
       </c>
       <c r="I18">
-        <v>20.38572916747892</v>
+        <v>34.65238666873267</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -922,25 +922,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>6.761209094086948</v>
+        <v>11.49294341897839</v>
       </c>
       <c r="C19">
-        <v>0.01564871003183431</v>
+        <v>0.02660023325312625</v>
       </c>
       <c r="D19">
-        <v>1.243051362418945</v>
+        <v>2.112982866874965</v>
       </c>
       <c r="E19">
-        <v>0.6053671091130656</v>
+        <v>1.029024518533476</v>
       </c>
       <c r="F19">
-        <v>0.2463211867968569</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G19">
-        <v>16.00104590839229</v>
+        <v>27.19914629329513</v>
       </c>
       <c r="I19">
-        <v>24.87264337083993</v>
+        <v>42.27940283513664</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,25 +948,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>11.17477614161592</v>
+        <v>18.99528148414485</v>
       </c>
       <c r="C20">
-        <v>0.01400147739690438</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D20">
-        <v>2.48610272483789</v>
+        <v>4.225965733749931</v>
       </c>
       <c r="E20">
-        <v>0.3026835545565328</v>
+        <v>0.514512259266738</v>
       </c>
       <c r="F20">
-        <v>0.4222648916517548</v>
+        <v>0.7177808643455402</v>
       </c>
       <c r="G20">
-        <v>19.76599788683752</v>
+        <v>33.59894542112925</v>
       </c>
       <c r="I20">
-        <v>34.16582667689653</v>
+        <v>58.07628597133647</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -974,28 +974,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>25.30758126189489</v>
+        <v>43.01872571409275</v>
       </c>
       <c r="C21">
-        <v>0.01564871003183431</v>
+        <v>0.02660023325312625</v>
       </c>
       <c r="D21">
-        <v>5.718036267127143</v>
+        <v>9.719721187624845</v>
       </c>
       <c r="E21">
-        <v>3.934886209234926</v>
+        <v>6.688659370467593</v>
       </c>
       <c r="F21">
-        <v>1.055662229129387</v>
+        <v>1.794452160863851</v>
       </c>
       <c r="G21">
-        <v>31.06085382217326</v>
+        <v>52.79834280463167</v>
       </c>
       <c r="H21">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I21">
-        <v>67.15221785489975</v>
+        <v>114.1477255806561</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1003,28 +1003,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>46.67112388557239</v>
+        <v>79.33323443378136</v>
       </c>
       <c r="C22">
-        <v>0.01729594266676424</v>
+        <v>0.0294002578060869</v>
       </c>
       <c r="D22">
-        <v>10.19302117183534</v>
+        <v>17.32645950837471</v>
       </c>
       <c r="E22">
-        <v>14.07478528687877</v>
+        <v>23.92482005590331</v>
       </c>
       <c r="F22">
-        <v>1.812220160005448</v>
+        <v>3.080476209482944</v>
       </c>
       <c r="G22">
-        <v>50.82685170901079</v>
+        <v>86.39728822576102</v>
       </c>
       <c r="H22">
-        <v>0.2381974212332419</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I22">
-        <v>123.8334955772028</v>
+        <v>210.4965751299985</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1032,28 +1032,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>65.68702446269195</v>
+        <v>111.6571377996581</v>
       </c>
       <c r="C23">
-        <v>0.01070701212704453</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D23">
-        <v>8.204138991965033</v>
+        <v>13.94568692137478</v>
       </c>
       <c r="E23">
-        <v>11.04794974131345</v>
+        <v>18.77969746323593</v>
       </c>
       <c r="F23">
-        <v>2.093730087773283</v>
+        <v>3.558996785713305</v>
       </c>
       <c r="G23">
-        <v>50.82685170901079</v>
+        <v>86.39728822576102</v>
       </c>
       <c r="H23">
-        <v>0.4168454871581735</v>
+        <v>0.7085687680558757</v>
       </c>
       <c r="I23">
-        <v>138.2872474920397</v>
+        <v>235.0655761233933</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1061,28 +1061,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>80.28935799228249</v>
+        <v>136.4787031003683</v>
       </c>
       <c r="C24">
-        <v>0.02306125688901899</v>
+        <v>0.03920034374144922</v>
       </c>
       <c r="D24">
-        <v>13.4249547141246</v>
+        <v>22.82021496224963</v>
       </c>
       <c r="E24">
-        <v>5.90232931385239</v>
+        <v>10.03298905570139</v>
       </c>
       <c r="F24">
-        <v>2.515994979425039</v>
+        <v>4.276777650058844</v>
       </c>
       <c r="G24">
-        <v>73.41656357968225</v>
+        <v>124.7960829927659</v>
       </c>
       <c r="H24">
-        <v>0.5359441977747944</v>
+        <v>0.9110169875004114</v>
       </c>
       <c r="I24">
-        <v>176.1082060340306</v>
+        <v>299.354985092386</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1090,28 +1090,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>60.47525911933323</v>
+        <v>102.7979939141956</v>
       </c>
       <c r="C25">
-        <v>0.01482509371436935</v>
+        <v>0.02520022097664593</v>
       </c>
       <c r="D25">
-        <v>12.67912389667323</v>
+        <v>21.55242524212465</v>
       </c>
       <c r="E25">
-        <v>12.56136751409611</v>
+        <v>21.35225875956963</v>
       </c>
       <c r="F25">
-        <v>2.850288018649343</v>
+        <v>4.845020834332398</v>
       </c>
       <c r="G25">
-        <v>117.6547493264139</v>
+        <v>199.9937227448169</v>
       </c>
       <c r="H25">
-        <v>1.071888395549589</v>
+        <v>1.822033975000823</v>
       </c>
       <c r="I25">
-        <v>207.3075013644298</v>
+        <v>352.3886556910167</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1119,28 +1119,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>51.36640797868835</v>
+        <v>87.31444514140529</v>
       </c>
       <c r="C26">
-        <v>0.01400147739690438</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D26">
-        <v>11.93329307922186</v>
+        <v>20.28463552199967</v>
       </c>
       <c r="E26">
-        <v>6.053671091130655</v>
+        <v>10.29024518533476</v>
       </c>
       <c r="F26">
-        <v>3.378119133214039</v>
+        <v>5.742246914764322</v>
       </c>
       <c r="G26">
-        <v>184.4826469438169</v>
+        <v>313.5901572638733</v>
       </c>
       <c r="H26">
-        <v>0.4168454871581735</v>
+        <v>0.7085687680558757</v>
       </c>
       <c r="I26">
-        <v>257.6449851906269</v>
+        <v>437.9540990041334</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1148,28 +1148,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>61.60212730168108</v>
+        <v>104.7134844840254</v>
       </c>
       <c r="C27">
-        <v>0.03376826901606352</v>
+        <v>0.05740050333569349</v>
       </c>
       <c r="D27">
-        <v>22.12631425105721</v>
+        <v>37.61109503037439</v>
       </c>
       <c r="E27">
-        <v>2.572810213730529</v>
+        <v>4.373354203767273</v>
       </c>
       <c r="F27">
-        <v>2.744721795736405</v>
+        <v>4.665575618246012</v>
       </c>
       <c r="G27">
-        <v>60.23923165512392</v>
+        <v>102.3967860453463</v>
       </c>
       <c r="H27">
-        <v>0.8932403296246572</v>
+        <v>1.518361645834019</v>
       </c>
       <c r="I27">
-        <v>150.2122138159699</v>
+        <v>255.3360575309291</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1177,28 +1177,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>66.2035057129347</v>
+        <v>112.5350709774968</v>
       </c>
       <c r="C28">
-        <v>0.03459188533352848</v>
+        <v>0.05880051561217381</v>
       </c>
       <c r="D28">
-        <v>20.38604234367068</v>
+        <v>34.65291901674943</v>
       </c>
       <c r="E28">
-        <v>1.967443104617463</v>
+        <v>3.344329685233796</v>
       </c>
       <c r="F28">
-        <v>2.938259871076792</v>
+        <v>4.994558514404384</v>
       </c>
       <c r="G28">
-        <v>56.47427967667867</v>
+        <v>95.99698691751222</v>
       </c>
       <c r="H28">
-        <v>0.833690974316347</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I28">
-        <v>148.8378135686282</v>
+        <v>252.9998031631205</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1206,28 +1206,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>65.12359037151803</v>
+        <v>110.6993925147432</v>
       </c>
       <c r="C29">
-        <v>0.03129742006366861</v>
+        <v>0.0532004665062525</v>
       </c>
       <c r="D29">
-        <v>18.14854989131659</v>
+        <v>30.84954985637449</v>
       </c>
       <c r="E29">
-        <v>2.724151991008796</v>
+        <v>4.630610333400646</v>
       </c>
       <c r="F29">
-        <v>3.466090985641487</v>
+        <v>5.891784594836309</v>
       </c>
       <c r="G29">
-        <v>58.35675566590125</v>
+        <v>99.1968864814292</v>
       </c>
       <c r="H29">
-        <v>0.833690974316347</v>
+        <v>1.417137536111751</v>
       </c>
       <c r="I29">
-        <v>148.6841272997662</v>
+        <v>252.7385617834019</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1235,28 +1235,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>67.2364682134202</v>
+        <v>114.290937333174</v>
       </c>
       <c r="C30">
-        <v>0.03376826901606352</v>
+        <v>0.05740050333569349</v>
       </c>
       <c r="D30">
-        <v>22.87214506850857</v>
+        <v>38.87888475049938</v>
       </c>
       <c r="E30">
-        <v>2.724151991008796</v>
+        <v>4.630610333400646</v>
       </c>
       <c r="F30">
-        <v>3.026231723504242</v>
+        <v>5.144096194476371</v>
       </c>
       <c r="G30">
-        <v>47.06189973056551</v>
+        <v>79.99748909792685</v>
       </c>
       <c r="H30">
-        <v>0.5954935530831049</v>
+        <v>1.012241097222679</v>
       </c>
       <c r="I30">
-        <v>143.5501585491065</v>
+        <v>244.0116593100357</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1264,28 +1264,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>68.83286480507961</v>
+        <v>117.0045489737661</v>
       </c>
       <c r="C31">
-        <v>0.03047380374620366</v>
+        <v>0.05180045422977217</v>
       </c>
       <c r="D31">
-        <v>25.10963752086267</v>
+        <v>42.68225391087427</v>
       </c>
       <c r="E31">
-        <v>4.237569763791461</v>
+        <v>7.203171629734332</v>
       </c>
       <c r="F31">
-        <v>2.586372461366997</v>
+        <v>4.396407794116433</v>
       </c>
       <c r="G31">
-        <v>39.53199577367505</v>
+        <v>67.1978908422585</v>
       </c>
       <c r="H31">
-        <v>0.8932403296246572</v>
+        <v>1.518361645834019</v>
       </c>
       <c r="I31">
-        <v>141.2221544581466</v>
+        <v>240.0544352508135</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1293,28 +1293,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>75.92274378568466</v>
+        <v>129.0561771422782</v>
       </c>
       <c r="C32">
-        <v>0.03294465269859854</v>
+        <v>0.05600049105921315</v>
       </c>
       <c r="D32">
-        <v>21.87770397857341</v>
+        <v>37.18849845699939</v>
       </c>
       <c r="E32">
-        <v>5.145620427461059</v>
+        <v>8.746708407534546</v>
       </c>
       <c r="F32">
-        <v>2.551183720396017</v>
+        <v>4.33659272208764</v>
       </c>
       <c r="G32">
-        <v>25.41342585450539</v>
+        <v>43.19864411288051</v>
       </c>
       <c r="H32">
-        <v>1.548283238016072</v>
+        <v>2.631826852778966</v>
       </c>
       <c r="I32">
-        <v>132.4919056573352</v>
+        <v>225.2144481856185</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1322,28 +1322,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>84.28034947143107</v>
+        <v>143.2627322018487</v>
       </c>
       <c r="C33">
-        <v>0.02141402425408905</v>
+        <v>0.03640031918848856</v>
       </c>
       <c r="D33">
-        <v>16.90549852889763</v>
+        <v>28.73656698949953</v>
       </c>
       <c r="E33">
-        <v>7.869772418469852</v>
+        <v>13.37731874093519</v>
       </c>
       <c r="F33">
-        <v>2.480806238454059</v>
+        <v>4.216962578030048</v>
       </c>
       <c r="G33">
-        <v>21.64847387606016</v>
+        <v>36.79884498504634</v>
       </c>
       <c r="H33">
-        <v>0.4168454871581735</v>
+        <v>0.7085687680558757</v>
       </c>
       <c r="I33">
-        <v>133.623160044725</v>
+        <v>227.1373945826041</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1351,28 +1351,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>81.83880174301081</v>
+        <v>139.1125026338842</v>
       </c>
       <c r="C34">
-        <v>0.01400147739690438</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D34">
-        <v>13.92217525909217</v>
+        <v>23.66540810899961</v>
       </c>
       <c r="E34">
-        <v>10.59392440947865</v>
+        <v>18.00792907433582</v>
       </c>
       <c r="F34">
-        <v>1.337172156897223</v>
+        <v>2.27297273709421</v>
       </c>
       <c r="G34">
-        <v>18.82475989222621</v>
+        <v>31.99899563917074</v>
       </c>
       <c r="H34">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I34">
-        <v>126.5903842934103</v>
+        <v>215.182832511907</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>57.70504150439486</v>
+        <v>98.08907959669759</v>
       </c>
       <c r="C35">
-        <v>0.01235424476197446</v>
+        <v>0.02100018414720494</v>
       </c>
       <c r="D35">
-        <v>12.18190335170565</v>
+        <v>20.70723209537466</v>
       </c>
       <c r="E35">
-        <v>8.172455973026386</v>
+        <v>13.89183100020193</v>
       </c>
       <c r="F35">
-        <v>0.6861804489341012</v>
+        <v>1.166393904561503</v>
       </c>
       <c r="G35">
-        <v>11.29485593533573</v>
+        <v>19.19939738350243</v>
       </c>
       <c r="H35">
-        <v>0.1786480659249315</v>
+        <v>0.3036723291668039</v>
       </c>
       <c r="I35">
-        <v>90.23143952408364</v>
+        <v>153.3786064936521</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>48.92486025026806</v>
+        <v>83.16421557344087</v>
       </c>
       <c r="C36">
-        <v>0.02553210584141387</v>
+        <v>0.04340038057089021</v>
       </c>
       <c r="D36">
-        <v>8.204138991965033</v>
+        <v>13.94568692137478</v>
       </c>
       <c r="E36">
-        <v>6.961721754800255</v>
+        <v>11.83378196313498</v>
       </c>
       <c r="F36">
-        <v>0.6509917079631217</v>
+        <v>1.106578832532708</v>
       </c>
       <c r="G36">
-        <v>17.88352189761491</v>
+        <v>30.3990458572122</v>
       </c>
       <c r="H36">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I36">
-        <v>82.71031606376108</v>
+        <v>140.5939336379887</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>39.25257501844922</v>
+        <v>66.72292151573566</v>
       </c>
       <c r="C37">
-        <v>0.01894317530169416</v>
+        <v>0.03220028235904757</v>
       </c>
       <c r="D37">
-        <v>6.46386708457851</v>
+        <v>10.98751090774982</v>
       </c>
       <c r="E37">
-        <v>5.90232931385239</v>
+        <v>10.03298905570139</v>
       </c>
       <c r="F37">
-        <v>0.3694817801952853</v>
+        <v>0.6280582563023481</v>
       </c>
       <c r="G37">
-        <v>11.29485593533573</v>
+        <v>19.19939738350243</v>
       </c>
       <c r="H37">
-        <v>0.119098710616621</v>
+        <v>0.2024482194445359</v>
       </c>
       <c r="I37">
-        <v>63.42115101832945</v>
+        <v>107.8055256207952</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,28 +1467,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>29.76810115035504</v>
+        <v>50.60087588633542</v>
       </c>
       <c r="C38">
-        <v>0.02141402425408905</v>
+        <v>0.03640031918848856</v>
       </c>
       <c r="D38">
-        <v>5.469425994643353</v>
+        <v>9.297124614249848</v>
       </c>
       <c r="E38">
-        <v>1.967443104617463</v>
+        <v>3.344329685233796</v>
       </c>
       <c r="F38">
-        <v>0.2463211867968569</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G38">
-        <v>7.52990395689049</v>
+        <v>12.79959825566829</v>
       </c>
       <c r="H38">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I38">
-        <v>45.06215877286561</v>
+        <v>76.59825837459968</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1496,28 +1496,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>18.64027784967027</v>
+        <v>31.68540650926681</v>
       </c>
       <c r="C39">
-        <v>0.01400147739690438</v>
+        <v>0.0238002087001656</v>
       </c>
       <c r="D39">
-        <v>4.226374632224409</v>
+        <v>7.184141747374883</v>
       </c>
       <c r="E39">
-        <v>1.362075995504398</v>
+        <v>2.315305166700323</v>
       </c>
       <c r="F39">
-        <v>0.3870761506807751</v>
+        <v>0.6579657923167451</v>
       </c>
       <c r="G39">
-        <v>12.23609392994705</v>
+        <v>20.79934716546096</v>
       </c>
       <c r="H39">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I39">
-        <v>36.92544939073212</v>
+        <v>62.76719069954216</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1525,28 +1525,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>13.99194659748549</v>
+        <v>23.78400790871918</v>
       </c>
       <c r="C40">
-        <v>0.01976679161915913</v>
+        <v>0.0336002946355279</v>
       </c>
       <c r="D40">
-        <v>2.2374924523541</v>
+        <v>3.803369160374938</v>
       </c>
       <c r="E40">
-        <v>0.4540253318347992</v>
+        <v>0.7717683889001071</v>
       </c>
       <c r="F40">
-        <v>0.158349334369408</v>
+        <v>0.2691678241295777</v>
       </c>
       <c r="G40">
-        <v>8.471141951501796</v>
+        <v>14.39954803762682</v>
       </c>
       <c r="H40">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I40">
-        <v>25.39227181447306</v>
+        <v>43.16268572410841</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1554,25 +1554,25 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>8.921039776920276</v>
+        <v>15.16430034448538</v>
       </c>
       <c r="C41">
-        <v>0.02223764057155402</v>
+        <v>0.03780033146496888</v>
       </c>
       <c r="E41">
-        <v>0.1513417772782664</v>
+        <v>0.257256129633369</v>
       </c>
       <c r="F41">
-        <v>0.3342930392243059</v>
+        <v>0.5682431842735526</v>
       </c>
       <c r="G41">
-        <v>8.471141951501796</v>
+        <v>14.39954803762682</v>
       </c>
       <c r="H41">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I41">
-        <v>17.95960354080451</v>
+        <v>30.52837213720636</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1580,22 +1580,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>5.352623866152167</v>
+        <v>9.098580206691226</v>
       </c>
       <c r="C42">
-        <v>0.0181195589842292</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D42">
-        <v>2.2374924523541</v>
+        <v>3.803369160374938</v>
       </c>
       <c r="F42">
-        <v>0.2463211867968569</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G42">
-        <v>14.11856991916967</v>
+        <v>23.99924672937805</v>
       </c>
       <c r="I42">
-        <v>21.97312698345702</v>
+        <v>37.35070187072835</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1603,25 +1603,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>6.62035057129347</v>
+        <v>11.25350709774967</v>
       </c>
       <c r="C43">
-        <v>0.01235424476197446</v>
+        <v>0.02100018414720494</v>
       </c>
       <c r="D43">
-        <v>1.740271907386521</v>
+        <v>2.958176013624951</v>
       </c>
       <c r="E43">
-        <v>0.6053671091130656</v>
+        <v>1.029024518533476</v>
       </c>
       <c r="F43">
-        <v>0.2463211867968569</v>
+        <v>0.4187055042015653</v>
       </c>
       <c r="G43">
-        <v>17.88352189761491</v>
+        <v>30.3990458572122</v>
       </c>
       <c r="I43">
-        <v>27.10818691696679</v>
+        <v>46.07945917546907</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1629,25 +1629,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>10.94001193696013</v>
+        <v>18.59622094876364</v>
       </c>
       <c r="C44">
-        <v>0.01070701212704453</v>
+        <v>0.01820015959424428</v>
       </c>
       <c r="D44">
-        <v>3.480543814773042</v>
+        <v>5.916352027249903</v>
       </c>
       <c r="E44">
-        <v>0.3026835545565328</v>
+        <v>0.514512259266738</v>
       </c>
       <c r="F44">
-        <v>0.404670521166265</v>
+        <v>0.687873328331143</v>
       </c>
       <c r="G44">
-        <v>21.64847387606016</v>
+        <v>36.79884498504634</v>
       </c>
       <c r="I44">
-        <v>36.78709071564317</v>
+        <v>62.53200370825201</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1655,28 +1655,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>24.79110001165214</v>
+        <v>42.1407925362541</v>
       </c>
       <c r="C45">
-        <v>0.01235424476197446</v>
+        <v>0.02100018414720494</v>
       </c>
       <c r="D45">
-        <v>8.204138991965033</v>
+        <v>13.94568692137478</v>
       </c>
       <c r="E45">
-        <v>3.783544431956661</v>
+        <v>6.431403240834228</v>
       </c>
       <c r="F45">
-        <v>1.020473488158407</v>
+        <v>1.734637088835055</v>
       </c>
       <c r="G45">
-        <v>33.88456780600718</v>
+        <v>57.59819215050729</v>
       </c>
       <c r="H45">
-        <v>0.05954935530831048</v>
+        <v>0.1012241097222679</v>
       </c>
       <c r="I45">
-        <v>71.75572832980971</v>
+        <v>121.9729362316749</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1684,28 +1684,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>45.73206706694925</v>
+        <v>77.73699229225663</v>
       </c>
       <c r="C46">
-        <v>0.01317786107943942</v>
+        <v>0.02240019642368526</v>
       </c>
       <c r="D46">
-        <v>14.66800607654354</v>
+        <v>24.9331978291246</v>
       </c>
       <c r="E46">
-        <v>13.62075995504397</v>
+        <v>23.1530516670032</v>
       </c>
       <c r="F46">
-        <v>1.759437048548978</v>
+        <v>2.990753601439752</v>
       </c>
       <c r="G46">
-        <v>55.53304168206737</v>
+        <v>94.39703713555366</v>
       </c>
       <c r="H46">
-        <v>0.2381974212332419</v>
+        <v>0.4048964388890717</v>
       </c>
       <c r="I46">
-        <v>131.5646871114658</v>
+        <v>223.6383291606906</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1713,28 +1713,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>64.3723449166195</v>
+        <v>109.4223988015234</v>
       </c>
       <c r="C47">
-        <v>0.008236163174649636</v>
+        <v>0.01400012276480329</v>
       </c>
       <c r="D47">
-        <v>11.93329307922186</v>
+        <v>20.28463552199967</v>
       </c>
       <c r="E47">
-        <v>10.74526618675691</v>
+        <v>18.2651852039692</v>
       </c>
       <c r="F47">
-        <v>2.040946976316814</v>
+        <v>3.469274177670111</v>
       </c>
       <c r="G47">
-        <v>55.53304168206737</v>
+        <v>94.39703713555366</v>
       </c>
       <c r="H47">
-        <v>0.4763948424664838</v>
+        <v>0.8097928777781435</v>
       </c>
       <c r="I47">
-        <v>145.1095238466236</v>
+        <v>246.662323841259</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1742,28 +1742,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>78.69296140062308</v>
+        <v>133.7650914597762</v>
       </c>
       <c r="C48">
-        <v>0.0181195589842292</v>
+        <v>0.03080027008256724</v>
       </c>
       <c r="D48">
-        <v>19.39160125373554</v>
+        <v>32.96253272324947</v>
       </c>
       <c r="E48">
-        <v>5.750987536574121</v>
+        <v>9.775732926068025</v>
       </c>
       <c r="F48">
-        <v>2.445617497483078</v>
+        <v>4.157147506001256</v>
       </c>
       <c r="G48">
-        <v>80.00522954196144</v>
+        <v>135.9957314664755</v>
       </c>
       <c r="H48">
-        <v>0.5954935530831049</v>
+        <v>1.012241097222679</v>
       </c>
       <c r="I48">
-        <v>186.9000103424446</v>
+        <v>317.6992774488758</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1771,28 +1771,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>59.25448525512315</v>
+        <v>100.7228791302134</v>
       </c>
       <c r="C49">
-        <v>0.01153062844450949</v>
+        <v>0.01960017187072461</v>
       </c>
       <c r="D49">
-        <v>18.14854989131659</v>
+        <v>30.84954985637449</v>
       </c>
       <c r="E49">
-        <v>12.25868395953959</v>
+        <v>20.83774650030288</v>
       </c>
       <c r="F49">
-        <v>2.779910536707384</v>
+        <v>4.725390690274805</v>
       </c>
       <c r="G49">
-        <v>128.0083672671383</v>
+        <v>217.593170346361</v>
       </c>
       <c r="H49">
-        <v>1.19098710616621</v>
+        <v>2.024482194445359</v>
       </c>
       <c r="I49">
-        <v>221.6525146444357</v>
+        <v>376.7728188898427</v>
       </c>
     </row>
   </sheetData>
